--- a/cdiscount.xlsx
+++ b/cdiscount.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-156intel/f-10709-aabtl63142.html?idOffre=4276631706&amp;sw=9d945c9aae30b0f688d82ee2684156cebc87ffacfbcbf21cfa9bc78b323983d47972fd3b07536162f42ef118b596fe5593a65f35e008408b690a439659570de4181f7a972ffdaa1c7cd3edd0c0ddaa024288d4f3a188eedb5eb8849de316f58181b87efd8be728b4df5d75773702391a166634891429b9fe88792739a8532de03c61082f32d6988f07792eda51086571#cm_rr=SE:22334455:SW:MCAR</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/156-inch-amd-ryzen-5-3500u/f-10709-aabki22091.html?idOffre=4262870060&amp;sw=9d945c9aae30b0f688d82ee2684156cebc87ffacfbcbf21cfa9bc78b323983d47972fd3b07536162f42ef118b596fe5593a65f35e008408b690a439659570de4181f7a972ffdaa1c7cd3edd0c0ddaa02f3064739be27bab0196a00a882572bbfc7f39511b66125592cc61c1e16ab2d7c9ffc1ab43252ebb38eafd6dfa80ed6973a1177544300953613865c863139fe2a#cm_rr=SE:22334455:SW:MCAR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>399,99 ,</t>
+          <t>459,99 ,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>399,99 €</t>
+          <t>459,99 €</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>399.99</v>
+        <v>459.99</v>
       </c>
     </row>
     <row r="3">
@@ -554,155 +554,155 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x260-i5--/f-10709-aaapt30835.html?idOffre=4266703771&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c2cea375e22ef39122bec501e7c14708fb988399f0b6548d928c3423de4f1c7f4dc0d8423bdc7ae8390124ba8506bd4620bb6d7bc73a7f5677ec5446c7a6f250c954a3d77e78193c61296228c9e29c530a94539f29e92073a5d2a85b666b5d8d1#mpos=5|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-256/f-1070992-rcdhpfzhmnrnrec.html?idOffre=4265820670&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca449562940fd6192ac34cf5aa209779764c0923989043ba8c8f0e2d9feb4dbd625bf826a3253e937847758bdf6cd207beeb248#mpos=5|mp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PC Portable Lenovo X260 i5 - SSD 256Go - RAM 8Go - Écran 12.5" - Win 11 Pro - Office - WiFi - Bluetooth - HDMI -  Easygood-deal</t>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 256 Go - RAM 16 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>210,00 ,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>210,00 €-10%</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>189</v>
-      </c>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x260-20f5-core-i5-6200u-2-3-ghz/f-1070992-len0190793773073.html#mpos=6|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-7280-16go-1to-ssd/f-1070992-del3760297048563.html#mpos=6|mp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ordinateur Portable - Lenovo - ThinkPad X260 - Core i5 2.3 GHz - 8 Go RAM - 500 Go HDD</t>
+          <t>PC portable Dell Latitude 7280 - 16Go - 1To SSD - Reconditionné Etat Correct</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>186,80 ,</t>
+          <t>669,00 ,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>186,80 €-10%</t>
+          <t>669,00 €</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>168.12</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-7280-16go-1to-ssd/f-1070992-del3760297048563.html#mpos=7|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-yoga-slim-7-14akp10-windows-1/f-10709-bun83jy0075hous.html#mpos=7|cd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PC portable Dell Latitude 7280 - 16Go - 1To SSD - Reconditionné Etat Correct</t>
+          <t>PC portable LENOVO Yoga Slim 7 14AKP10 | Windows 11 - Copilot+ - 14" WUXGA OLED - Ryzen7 AI 350 - 32 Go - 1 To - Aluminium + Housse</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>669,00 ,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>669,00 €</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>669</v>
-      </c>
+          <t>1429,99 ,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/tablette-chuwi-aupad-4g-processeur-uqualcomm-sn/f-10709-chu1737264298480.html#mpos=8|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-5290-16go-50/f-10709-del3663369190804.html#mpos=8|mp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHUWI Hi10 Max - Ordinateur Portable 2en1|12.96" 2K Windows 11|Intel N100 12Go/512Go SSD|Clavier Magnétique|WiFi 6|Gris</t>
+          <t>Ordinateur portable - Dell Latitude 5290 - 16Go - 512Go SSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>599,00 ,</t>
+          <t>399,00 ,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>599,00 €</t>
+          <t>399,00 €</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>599</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-yoga-slim-7-14akp10-windows-1/f-10709-bun83jy0075hous.html#mpos=9|cd</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0220ec.html#mpos=9|mp</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PC portable LENOVO Yoga Slim 7 14AKP10 | Windows 11 - Copilot+ - 14" WUXGA OLED - Ryzen7 AI 350 - 32 Go - 1 To - Aluminium + Housse</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 500Go - Windows 10 - Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1429,99 ,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+          <t>599,90 ,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>599,90 €</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>599.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-8/f-1070992-len8944595383648.html?idOffre=1817524511&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40e1b4e014e04d1c73c72d0e0a7b35185086644b59e243555bb469aa584fe99ba18b82cd5651dce2ede26eaa6633dededc86ec21276a14aa0774a34faef6f7905a#mpos=10|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x260-i5--/f-10709-aaapt30835.html?idOffre=4266703771&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c2cea375e22ef39122bec501e7c14708fb988399f0b6548d928c3423de4f1c7f4e53aedd35921447f6e08ad4015a3d351fedeea91befb8a562249446337ca003d0120193a95745c1ed85c440f9b7d616c817b931836134cd765aa5572afa4926a#mpos=10|mp</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lenovo Thinkpad X230 - Ordinateur portable - Intel Core i5 - RAM 8Go - 512Go SSD - Windows 10 - Reconditionné</t>
+          <t>PC Portable Lenovo X260 i5 - SSD 256Go - RAM 8Go - Écran 12.5" - Win 11 Pro - Office - WiFi - Bluetooth - HDMI -  Easygood-deal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>249,00 ,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>210,00 ,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>210,00 €-10%</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x280-12-5-rom-1/f-1070992-rcdlenhpzkrjmrec.html?idOffre=4265821052&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956d150e594bad10c92f894d3b3e92e59ae2e69a701f64ab93375c24f95b45fe42287df639a8d0d9eabc066f9987b5f2109#mpos=11|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-8/f-1070992-len8944595383648.html?idOffre=1817524511&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40383f18f0a09a98038cec1b5b1a3010ea83db64a5b6637a0f05192147ff7c3e2a8bc33785b1f76d170cbebea282076fbda6d88b505e9956914171edcf17a943e2#mpos=11|mp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
+          <t>Lenovo Thinkpad X230 - Ordinateur portable - Intel Core i5 - RAM 8Go - 512Go SSD - Windows 10 - Reconditionné</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>305,00 ,</t>
+          <t>249,00 ,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -711,17 +711,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-e7270-12-core-i5/f-1070992-del3701157118057.html?idOffre=1817524936&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956bddd799586065dd8ff10a8b4c95d70dda4536a392fd7ed3be4d75e4a70b9ebed4927430717e60ffb1b7b6f2277967cbe#mpos=12|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x280-12-5-rom-1/f-1070992-rcdlenhpzkrjmrec.html?idOffre=4265821052&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956d150e594bad10c92f894d3b3e92e59ae2e69a701f64ab93375c24f95b45fe42296e7bd04522a6199edfae35ae14ee463#mpos=12|mp</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PC Portable - Dell Latitude E7270 - 12"  Core i5 - 8Go RAM - 256Go SSD - Windows 10 Pro - Reconditionné Etat Correct</t>
+          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
+          <t>305,00 ,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -730,37 +730,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-5290-16go-50/f-10709-del3663369190804.html#mpos=13|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x250-i5-4go-120go-ssd-1/f-1070992-len3663369099886.html#mpos=13|mp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Dell Latitude 5290 - 16Go - 512Go SSD</t>
+          <t>Pc portable Lenovo X250 - i5 - 4Go - 120Go SSD - 12,5'' - W10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>399,00 ,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>399,00 €</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>399</v>
-      </c>
+          <t>219,00 ,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0220ec.html#mpos=14|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0224ec.html#mpos=14|mp</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 500Go - Windows 10 - Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 480Go - Windows 10 - Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -780,111 +774,105 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x250-i5-4go-120go-ssd-1/f-1070992-len3663369099886.html#mpos=15|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0227ec.html#mpos=15|mp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pc portable Lenovo X250 - i5 - 4Go - 120Go SSD - 12,5'' - W10</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 2To - Windows 10 - Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>219,00 ,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+          <t>699,90 ,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>699,90 €</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>699.9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0224ec.html#mpos=16|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x270-core-i5-ram-16/f-1070992-rcdleno0292ec.html#mpos=16|mp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 480Go - Windows 10 - Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x270 - Core i5 - RAM 16Go - SSD 1To - Windows 10 - Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>599,90 ,</t>
+          <t>499,00 ,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>599,90 €</t>
+          <t>499,00 €</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>599.9</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0227ec.html#mpos=17|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0230ec.html#mpos=17|mp</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 2To - Windows 10 - Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 1To - Linux - Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>699,90 ,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>699,90 €</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>699.9</v>
-      </c>
+          <t>285,00 ,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x270-core-i5-ram-16/f-1070992-rcdleno0292ec.html#mpos=18|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0234ec.html#mpos=18|mp</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x270 - Core i5 - RAM 16Go - SSD 1To - Windows 10 - Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 1To - Linux - Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>499,00 ,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>499,00 €</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>499</v>
-      </c>
+          <t>339,00 ,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0230ec.html#mpos=19|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-8/f-1070992-len8944595383648.html#mpos=19|mp</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 1To - Linux - Reconditionné - Etat correct</t>
+          <t>Lenovo Thinkpad X230 - Ordinateur portable - Intel Core i5 - RAM 8Go - 512Go SSD - Windows 10 - Reconditionné</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>285,00 ,</t>
+          <t>249,00 ,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -893,12 +881,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-256/f-1070992-rcdhpfzhmnrnrec.html?idOffre=4265820670&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca449562940fd6192ac34cf5aa209779764c0923989043ba8c8f0e2d9feb4dbd625bf8281eb1cb0586b93accfe3b678387a4396#mpos=20|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-e7270-12-core-i5/f-1070992-del3701157118057.html?idOffre=1817524936&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956bddd799586065dd8ff10a8b4c95d70dda4536a392fd7ed3be4d75e4a70b9ebedd3da7cea86b792c54e5c39052fe6c6a8#mpos=20|mp</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 256 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+          <t>PC Portable - Dell Latitude E7270 - 12"  Core i5 - 8Go RAM - 256Go SSD - Windows 10 Pro - Reconditionné Etat Correct</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -912,67 +900,67 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e5250-4go-ssd-240go/f-1070992-del3700868458704.html?idOffre=1971452217&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956dc588d7153c3efa5e615f39ce9625c29076d307848f17949d53a664da30b6e52deac0ffe7f6c54c36ec986103f2b06ee#mpos=21|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x250-12-5-rec/f-1070992-rcdlenrtxohtbrec.html?idOffre=4219488439&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a3652487863bb02d3434f4cfe86f670d78a6edb99e88c42feac34400be06484b716fa367472e3c7dee0fb19e078e04b75356778aec7422b2ebae7ba5ab804e5e1e9a67a#mpos=21|mp</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ordinateur Portable - Dell - Latitude E5250 - Intel Core i5 - 4Go RAM - SSD 240Go</t>
+          <t>PC portable - LENOVO - ThinkPad X250 - 12,5"- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>429,00 ,</t>
+          <t>269,00 ,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>429,00 €</t>
+          <t>269,00 €</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>429</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-4/f-1070992-len8944595383747.html?idOffre=1817529008&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca449562a047cb0e448378acf61f866b8c9c9b7f9f3b20de549b52ab912e350a5fb5d9cc83f66481558ae2e91a5f94d523b5533#mpos=22|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7270-8go-25/f-10709-del3663369191894.html?idOffre=2838760039&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a3652487863bb02d3434f4cfe86f670d78a6edb85e056a5460029356981176cbc68d4e3714367a16216b108a568383316173c630d763d7b0e95dc765a1f88a4cd4b8b33#mpos=22|mp</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lenovo - Ordinateur portable ThinkPad X230 - Intel Core i5 - RAM 4Go - HDD 320Go - Windows 10 - Reconditionné</t>
+          <t>Ordinateur portable - Dell Latitude E7270 - 8Go - 256Go SSD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>449,00 ,</t>
+          <t>249,00 ,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>449,00 €</t>
+          <t>249,00 €</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>449</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0234ec.html#mpos=23|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x240-core-i5/f-10709-len0888228934860.html#mpos=23|mp</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 1To - Linux - Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - LENOVO - ThinkPad X240 - Intel Core i5 - 4 Go RAM - 500 Go HDD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>339,00 ,</t>
+          <t>237,00 ,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -981,17 +969,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-8/f-1070992-len8944595383648.html#mpos=24|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-yoga-slim-7-14ill10-windows/f-10709-bun83jx009shous.html#mpos=24|cd</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lenovo Thinkpad X230 - Ordinateur portable - Intel Core i5 - RAM 8Go - 512Go SSD - Windows 10 - Reconditionné</t>
+          <t>PC portable LENOVO Yoga Slim 7 14ILL10 |  Windows 11  - 14'' WUXGA OLED - Core Ultra 5 226V - RAM 16 Go - SSD 512GB + Housse</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>249,00 ,</t>
+          <t>1229,99 ,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1000,17 +988,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x240-core-i5/f-1070992-len0888228934860.html#mpos=25|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-yoga-slim-7x-14q8x9-windows-1/f-10709-bun83ed002ahous.html#mpos=25|cd</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ordinateur portable - LENOVO - ThinkPad X240 - Intel Core i5 - 4 Go RAM - 500 Go HDD</t>
+          <t>PC Portable LENOVO Yoga Slim 7x 14Q8X9 | Windows 11 - 14" OLED 3K 90hz Tactile - Snapdragon X Elite - RAM 16Go - SSD 1 To  + Housse</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>237,00 ,</t>
+          <t>1629,99 ,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1019,193 +1007,205 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-yoga-slim-7-14ill10-windows/f-10709-bun83jx009shous.html#mpos=26|cd</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x260-i5--/f-10709-aaapt30835.html#mpos=26|mp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PC portable LENOVO Yoga Slim 7 14ILL10 |  Windows 11  - 14'' WUXGA OLED - Core Ultra 5 226V - RAM 16 Go - SSD 512GB + Housse</t>
+          <t>PC Portable Lenovo X260 i5 - SSD 256Go - RAM 8Go - Écran 12.5" - Win 11 Pro - Office - WiFi - Bluetooth - HDMI -  Easygood-deal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1229,99 ,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+          <t>210,00 ,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>210,00 €-10%</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-yoga-slim-7x-14q8x9-windows-1/f-10709-bun83ed002ahous.html#mpos=27|cd</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7240-4go-128go-ssd/f-10709-del3700868455314.html#mpos=27|mp</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PC Portable LENOVO Yoga Slim 7x 14Q8X9 | Windows 11 - 14" OLED 3K 90hz Tactile - Snapdragon X Elite - RAM 16Go - SSD 1 To  + Housse</t>
+          <t>Ordinateur portable - Dell Latitude E7240 - 4Go - 128Go SSD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1629,99 ,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+          <t>399,00 ,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>399,00 €</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-10/f-10709-aabdo63030.html#mpos=28|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateurs-portables-hp-2570p-core-i5-3360m-8/f-10709-hp3663369026899.html#mpos=28|mp</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ordinateur portable, 10 pouces Ordinateur Portable Windows 11, 8 Go + 128 go, Processeur Intel Dual Core - core</t>
+          <t>Ordinateurs portables HP 2570P - Core i5-3360M - 8Go - 120Go SSD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>399,00 ,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>399,00 €</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>399</v>
-      </c>
+          <t>257,00 ,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7240-4go-128go-ssd/f-10709-del3700868455314.html#mpos=29|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-8/f-1070992-len8944595383716.html#mpos=29|mp</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Dell Latitude E7240 - 4Go - 128Go SSD</t>
+          <t>Lenovo - Ordinateur portable ThinkPad X230 - Intel Core i5 - RAM 8Go - SSD 128Go - Windows 10 - Reconditionné</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>399,00 ,</t>
+          <t>429,00 ,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>399,00 €</t>
+          <t>429,00 €</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>399</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7270-8go-25/f-10709-del3663369191894.html?idOffre=1817524760&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956fbb61c4a0b78612af4d20c6c7ababc539a6521bfc5102bd2868713872a628490e1b57e903d99f56939941f1b2f74410b#mpos=30|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e5250-4go-ssd-240go/f-1070992-del3700868458704.html?idOffre=1971452217&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956dc588d7153c3efa5e615f39ce9625c29076d307848f17949d53a664da30b6e52fc7e8cc85331e9eb47d4beb0d809641b#mpos=30|mp</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Dell Latitude E7270 - 8Go - 256Go SSD</t>
+          <t>Ordinateur Portable - Dell - Latitude E5250 - Intel Core i5 - 4Go RAM - SSD 240Go</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>499,00 ,</t>
+          <t>429,00 ,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>499,00 €</t>
+          <t>429,00 €</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>499</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x250-12-core/f-1070992-len0190576274490.html?idOffre=1817523959&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956d377b4ed2d3ad4509cfbfe49295044bc1e441d46ddec98c2c7d4f10de48408dd6ecef86b70fb56ac9550fd72c6a19544#mpos=31|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-4/f-1070992-len8944595383747.html?idOffre=1817529008&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca449562a047cb0e448378acf61f866b8c9c9b7f9f3b20de549b52ab912e350a5fb5d9c72cd12f35726188908ad1754fffe8441#mpos=31|mp</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Lenovo - Thinkpad X250 - Core i5-5300U 2.3 GHz - SSD 128 Go - RAM 8 Go</t>
+          <t>Lenovo - Ordinateur portable ThinkPad X230 - Intel Core i5 - RAM 4Go - HDD 320Go - Windows 10 - Reconditionné</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>200,00 ,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+          <t>449,00 ,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>449,00 €</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>449</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x260-i5--/f-10709-aaapt30835.html#mpos=32|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e6220-4go-500go/f-1070992-del3700868422354.html#mpos=32|mp</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PC Portable Lenovo X260 i5 - SSD 256Go - RAM 8Go - Écran 12.5" - Win 11 Pro - Office - WiFi - Bluetooth - HDMI -  Easygood-deal</t>
+          <t>Ordinateur portable Dell Latitude E6220 - Intel Core i5-2520M - 4Go - 500Go - 12,5 pouces - Windows 10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>210,00 ,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>210,00 €-10%</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>189</v>
-      </c>
+          <t>179,00 ,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateurs-portables-hp-2570p-core-i5-3360m-8/f-1070992-hp3663369026899.html#mpos=33|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7270-8go-128go-ssd/f-10709-del3700868442789.html#mpos=33|mp</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ordinateurs portables HP 2570P - Core i5-3360M - 8Go - 120Go SSD</t>
+          <t>Ordinateur portable - Dell Latitude E7270 8Go 128Go SSD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>257,00 ,</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+          <t>218,99 ,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>218,99 €-10%</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>197.09</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e6220-4go-500go/f-1070992-del3700868422354.html#mpos=34|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-8go-500-go-ssd/f-10709-len3663369099169.html#mpos=34|mp</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ordinateur portable Dell Latitude E6220 - Intel Core i5-2520M - 4Go - 500Go - 12,5 pouces - Windows 10</t>
+          <t>Pc portable Lenovo X240 - i5 - 8Go - 500 Go SSD - 12,5'' - W10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>179,00 ,</t>
+          <t>260,00 ,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1214,42 +1214,42 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-8/f-1070992-len8944595383716.html#mpos=35|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x270-20k5-core-i5-6300u-2-4-ghz/f-1070992-len0191999097642.html#mpos=35|mp</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lenovo - Ordinateur portable ThinkPad X230 - Intel Core i5 - RAM 8Go - SSD 128Go - Windows 10 - Reconditionné</t>
+          <t>Ordinateur Portable - Lenovo - ThinkPad X270 - Core i5 6300U - 8 Go RAM - 512 Go SSD NVMe</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>429,00 ,</t>
+          <t>499,00 ,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>429,00 €</t>
+          <t>499,00 €</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>429</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-8go-500-go-ssd/f-1070992-len3663369099169.html#mpos=36|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-1-6ghz-8go-ddr3-120go/f-1070992-del4898807375485.html#mpos=36|mp</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pc portable Lenovo X240 - i5 - 8Go - 500 Go SSD - 12,5'' - W10</t>
+          <t>PC Portable LENOVO X240 - i5 1.6Ghz 8Go DDR3 120Go SSD WIFI W10Pro</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>260,00 ,</t>
+          <t>205,00 ,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1277,17 +1277,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-1-6ghz-8go-ddr3-120go/f-1070992-del4898807375485.html#mpos=38|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0117ec.html#mpos=38|mp</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PC Portable LENOVO X240 - i5 1.6Ghz 8Go DDR3 120Go SSD WIFI W10Pro</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 500Go - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>205,00 ,</t>
+          <t>269,00 ,</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1296,42 +1296,36 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x270-20k5-core-i5-6300u-2-4-ghz/f-1070992-len0191999097642.html#mpos=39|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0133ec.html#mpos=39|mp</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ordinateur Portable - Lenovo - ThinkPad X270 - Core i5 6300U - 8 Go RAM - 512 Go SSD NVMe</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 500Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>499,00 ,</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>499,00 €</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>499</v>
-      </c>
+          <t>249,00 ,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-1-t/f-1070992-rcdhppgqztuorec.html?idOffre=4265822959&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956e3e1fcdf0f85cba52ad06e01384d28e27c660b4a507d2594c8cb817a1840b254376e465fcae52297338c3a688c65a53f#mpos=40|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-820-g3-12-core-i5-2-4-ghz-ssd-512/f-1070992-hp0190781320418.html?idOffre=2043943936&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c24cc9290113f3c456c15bdbf382474ac303543edb1b252a7f8aa3d22527501026fbfb87373ed5b519644fe3ef2a6d41fb1f5b084c516249ec5990c1bf078c32b5fe730eee8f635785cb0503a7ff1999d33742368871ae254147cef1c093acf49#mpos=40|mp</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 1 To - RAM 8 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable - HP - EliteBook 820 G3 - 12" - Core i5 2,4 GHz - SSD 512 Go - 8 Go RAM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
+          <t>249,00 ,</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1340,36 +1334,42 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5250-12-5-rom-25/f-1070992-rcddelqjxzjyzrec.html?idOffre=4265821419&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca449566a23c1f8c6ee50cc993c7290075de1a6ab50fb8faf27571adb63e7efd2f87d0925ad8b2189b40b8116f6ef2988cc3e32#mpos=41|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-820-g1-core-i5-ram-8g/f-1070992-rcdhp0014ec.html?idOffre=4190823698&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a365248b26aba4b7191a3d221b3b75b90859e1cfcb83b42360a05dba5d81cf9010db8caddbbf20eb00f318a7328f2db76281ac739d3012ac5612929d1f490a73a2c4d9a#mpos=41|mp</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ordinateur portable - DELL E5250 - 12,5 " - ROM 256 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable HP 820-G1 - Core I5 - RAM 8G - HDD 500G - Windows 7- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+          <t>349,00 ,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>349,00 €</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-5290-8go-240/f-10709-del3663369190538.html#mpos=42|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0238ec.html#mpos=42|mp</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Dell Latitude 5290 - 8Go - 256Go SSD - Linux</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 1To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>269,99 ,</t>
+          <t>319,00 ,</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1378,17 +1378,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0238ec.html#mpos=43|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-5290-8go-240/f-10709-del3663369190538.html#mpos=43|mp</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 1To - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - Dell Latitude 5290 - 8Go - 256Go SSD - Linux</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>319,00 ,</t>
+          <t>269,99 ,</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1441,45 +1441,51 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0133ec.html#mpos=46|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-x250-core-i5-320go-4go/f-1070992-len6784362483735.html#mpos=46|mp</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 500Go - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable - LENOVO - ThinkPad X250 - Core i5 - 320 Go - 4 Go RAM - 12,5 pouces</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>249,00 ,</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+          <t>419,00 ,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>419,00 €</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7270-8go-128go-ssd/f-10709-del3700868442789.html#mpos=47|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x220-ultrabook/f-1070992-len7296667699586.html#mpos=47|mp</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Dell Latitude E7270 8Go 128Go SSD</t>
+          <t>ordinateur portable lenovo thinkpad x220 ultrabook intel core i5 8go ram 240Go SSD  DRIVES disque dur wifi windows 7 pc portable</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>218,99 ,</t>
+          <t>409,00 ,</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>218,99 €-10%</t>
+          <t>409,00 €</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>197.09</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50">
@@ -1510,130 +1516,124 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-x250-core-i5-320go-4go/f-1070992-len6784362483735.html#mpos=49|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x270-i5-8g/f-1070992-len0191200392047.html#mpos=49|mp</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ordinateur Portable - LENOVO - ThinkPad X250 - Core i5 - 320 Go - 4 Go RAM - 12,5 pouces</t>
+          <t>Ordinateur portable - LENOVO - ThinkPad X270 - i5 - 8Go RAM - 256Go SSD - Full HD 1920x1080</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>419,00 ,</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>419,00 €</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>419</v>
-      </c>
+          <t>269,10 ,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-8/f-1070992-len8944595383716.html?idOffre=1817523003&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca4495643a4068f7c3a5e0ebf8eead24356434640126815a994a90bf763099109d9041765ed128e17518ae130a05a55bc399e90#mpos=50|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x250-12-core/f-1070992-len0190576274490.html?idOffre=1817523959&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956d377b4ed2d3ad4509cfbfe49295044bc1e441d46ddec98c2c7d4f10de48408dd8769ee961dc9c2a976e48fe28522981d#mpos=50|mp</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lenovo - Ordinateur portable ThinkPad X230 - Intel Core i5 - RAM 8Go - SSD 128Go - Windows 10 - Reconditionné</t>
+          <t>Ordinateur portable - Lenovo - Thinkpad X250 - Core i5-5300U 2.3 GHz - SSD 128 Go - RAM 8 Go</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>429,00 ,</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>429,00 €</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>429</v>
-      </c>
+          <t>200,00 ,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-inspiron-910-8-9/f-1070992-rcddelhwpfvuwrec.html?idOffre=4265820522&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956e31addc18463d962acda6ceded89a8e35a5c880f385cb13579d5801642d63562b5158ffa1f89ef858423575c17eeac89#mpos=51|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-8/f-1070992-len8944595383716.html?idOffre=1817523003&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca4495643a4068f7c3a5e0ebf8eead24356434640126815a994a90bf763099109d90417c800cf9774f6d10c1688d3964b62bef4#mpos=51|mp</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ordinateur portable - DELL Inspiron 910 - 8,9 " - ROM 16 Go - RAM 1024 Mo- Reconditionné - Etat correct</t>
+          <t>Lenovo - Ordinateur portable ThinkPad X230 - Intel Core i5 - RAM 8Go - SSD 128Go - Windows 10 - Reconditionné</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+          <t>429,00 ,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>429,00 €</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0117ec.html#mpos=52|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-4/f-1070992-len8944595383747.html#mpos=52|mp</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 500Go - Windows 10- Reconditionné - Etat correct</t>
+          <t>Lenovo - Ordinateur portable ThinkPad X230 - Intel Core i5 - RAM 4Go - HDD 320Go - Windows 10 - Reconditionné</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>269,00 ,</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+          <t>449,00 ,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>449,00 €</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>449</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x220-ultrabook/f-1070992-len7296667699586.html#mpos=53|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x250-i5-8go-120go-ssd-1/f-1070992-len3663369037048.html#mpos=53|mp</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ordinateur portable lenovo thinkpad x220 ultrabook intel core i5 8go ram 240Go SSD  DRIVES disque dur wifi windows 7 pc portable</t>
+          <t>Pc portable Lenovo X250 - i5 - 8Go - 120Go SSD - 12,5'' - W10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>409,00 ,</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>409,00 €</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>409</v>
-      </c>
+          <t>229,00 ,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x270-i5-8g/f-1070992-len0191200392047.html#mpos=54|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0222ec.html#mpos=54|mp</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ordinateur portable - LENOVO - ThinkPad X270 - i5 - 8Go RAM - 256Go SSD - Full HD 1920x1080</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 1To - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>269,10 ,</t>
+          <t>339,00 ,</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -1642,17 +1642,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x250-i5-8go-120go-ssd-1/f-1070992-len3663369037048.html#mpos=55|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-e5250-i5-5300u-8go-ssd-240g/f-1070992-del3663369144241.html#mpos=55|mp</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pc portable Lenovo X250 - i5 - 8Go - 120Go SSD - 12,5'' - W10</t>
+          <t>Pc portable Dell E5250 - i5-5300U - 8Go - SSD 240Go - Windows 10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>229,00 ,</t>
+          <t>199,00 ,</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -1661,42 +1661,36 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-4/f-1070992-len8944595383747.html#mpos=56|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-8go-240-go-ssd/f-1070992-len3663369045265.html#mpos=56|mp</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lenovo - Ordinateur portable ThinkPad X230 - Intel Core i5 - RAM 4Go - HDD 320Go - Windows 10 - Reconditionné</t>
+          <t>Pc portable Lenovo X240 - i5 - 8Go - 240 Go SSD - 12,5'' - W10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>449,00 ,</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>449,00 €</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>449</v>
-      </c>
+          <t>229,00 ,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0222ec.html#mpos=57|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0121ec.html#mpos=57|mp</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 1To - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 480Go - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>339,00 ,</t>
+          <t>309,00 ,</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -1705,65 +1699,71 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-8go-240-go-ssd/f-1070992-len3663369045265.html#mpos=58|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-e7250-i5-4go-120go-ssd-wi/f-10709-del3663369055431.html#mpos=58|mp</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pc portable Lenovo X240 - i5 - 8Go - 240 Go SSD - 12,5'' - W10</t>
+          <t>Pc portable Dell E7250 - i5 - 4Go - 120Go SSD - Windows 10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>229,00 ,</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+          <t>499,00 ,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>499,00 €</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-e7250-i5-4go-120go-ssd-wi/f-10709-del3663369055431.html#mpos=59|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7240-8go-256go-ssd/f-1070992-del3700868420121.html#mpos=59|mp</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pc portable Dell E7250 - i5 - 4Go - 120Go SSD - Windows 10</t>
+          <t>PC Portable - Dell - Latitude E7240 - Intel Core i5 - 8Go RAM - 256Go SSD - 12,5" HD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>499,00 ,</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>499,00 €</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>499</v>
-      </c>
+          <t>201,47 ,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-e5250-i5-5300u-8go-ssd-240g/f-1070992-del3663369144241.html#mpos=60|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x270-intel-core-i5-7300u-ram-4/f-1070992-len0192076755974.html#mpos=60|mp</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pc portable Dell E5250 - i5-5300U - 8Go - SSD 240Go - Windows 10</t>
+          <t>Ordinateur Portable - Lenovo - ThinkPad X270 - Intel Core i5 - RAM 4 Go - SSD 128 Go - 12.5"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+          <t>248,99 ,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>248,99 €-10%</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>224.09</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -1775,7 +1775,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/156pc-portableintel/f-10709-aaaow88403.html?idOffre=4222417499&amp;sw=9d945c9aae30b0f688d82ee2684156cebc87ffacfbcbf21cfa9bc78b323983d4c42037002281e5036a5db7eb7e0fae1e30be2888c00759908bbb27ea109b30007cb1b33f3bb57d57d1c5e9577af9392472cb43533f268b1f904cb396f4d9e7e95e44a731b57c5dfd24bd43d7c3f6700eeabd820b7d3a58e96d652ab13b8554a3df26885f6432526e445c016de0e65d4c#cm_rr=SE:22334455:SW:MCAR</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/156pc-portableintel/f-10709-aaaow88403.html?idOffre=4222417499&amp;sw=9d945c9aae30b0f688d82ee2684156cebc87ffacfbcbf21cfa9bc78b323983d4c42037002281e5036a5db7eb7e0fae1e30be2888c00759908bbb27ea109b30001d8d4963cbcb309a8783956a7bea4e5d9a39fa7a0c832d46da1613a393fba5e11a867d45fe7295f226ddce0c292d3bc75e46c7ebd20e7f21f8033a66a0cccd74a1afcc63705d3df9801003232b454367#cm_rr=SE:22334455:SW:MCAR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1797,27 +1797,33 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 480 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable LENOVO X250 - Core I5 - RAM 8G - SSD 128G - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+          <t>279,00 ,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>279,00 €</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ordinateur portable - DELL E5250 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - DELL E5250 - 12,5 " - ROM 256 Go - RAM 16 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>205,00 ,</t>
+          <t>199,00 ,</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -1827,12 +1833,12 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 1 To - RAM 8 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>215,00 ,</t>
+          <t>199,00 ,</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -1841,17 +1847,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0121ec.html#mpos=4|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e5270-8go-128go-ssd/f-10709-del3700868442772.html#mpos=4|mp</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 480Go - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - Dell Latitude E5270 8Go 128Go SSD</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>309,00 ,</t>
+          <t>359,00 ,</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -1860,61 +1866,61 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x270-intel-core-i5-7300u-ram-4/f-1070992-len0192076755974.html#mpos=5|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-10709-rcdleno0217ec.html#mpos=5|mp</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ordinateur Portable - Lenovo - ThinkPad X270 - Intel Core i5 - RAM 4 Go - SSD 128 Go - 12.5"</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 2To - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>248,99 ,</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>248,99 €-10%</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>224.09</v>
-      </c>
+          <t>359,00 ,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-480/f-1070992-rcdhptscvnjbrec.html?idOffre=4265820671&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f403fc82e9a021454fca37eeaa80bd511624fdaecdb009e6c574bb59e9c3628fb2e6a46b7b79d17c217cf4d1e1680ccdfa45c41a4425b53a31bb9a9b11e894f6287#mpos=6|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-820-g1-core-i5-ram-8g/f-1070992-rcdhp0013ec.html?idOffre=4190823720&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a365248b26aba4b7191a3d221b3b75b90859e1c1fea0c4a9a37bb9057949bb22102d2afbf5d5ee65ce9914aef1e98aa3e2d5f971091fa1b7c8571a6350fa3b450bc84a2#mpos=6|mp</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 480 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable HP 820-G1 - Core I5 - RAM 8G - HDD 320G - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+          <t>349,00 ,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>349,00 €</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e5270-8go-128go-ssd/f-10709-del3700868442772.html#mpos=7|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x270-i5-8go-500-go-ssd/f-1070992-len3663369146795.html#mpos=7|mp</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Dell Latitude E5270 8Go 128Go SSD</t>
+          <t>Pc portable Lenovo X270 - i5 - 8Go - 500 Go SSD - 12,5'' - W10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>359,00 ,</t>
+          <t>269,00 ,</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -1923,17 +1929,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x270-i5-8go-500-go-ssd/f-1070992-len3663369146795.html#mpos=8|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0239ec.html#mpos=8|mp</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Pc portable Lenovo X270 - i5 - 8Go - 500 Go SSD - 12,5'' - W10</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 240Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>269,00 ,</t>
+          <t>309,00 ,</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -1942,36 +1948,42 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-10709-rcdleno0217ec.html#mpos=9|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x-220-core-i5-4-go-ram/f-1070992-len8945016106914.html#mpos=9|mp</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 2To - Windows 10- Reconditionné - Etat correct</t>
+          <t>Pc portable LENOVO THINKPAD X 220 core i5 4 go ram 1 to disque dur,ordinateur portable ultrabook  reconditionné par pro avec 25</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>359,00 ,</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+          <t>409,00 ,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>409,00 €</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>409</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x280-12-5-rom-2/f-1070992-rcdlennishkvjrec.html?idOffre=4265822323&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f403fc82e9a021454fca37eeaa80bd5116273a72eb30c0d7b936d1702044ee172dd50bc5d2d958c0b7da96b067bde2999d4b4de529ab3f744ca45468775b501d000#mpos=10|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5250-12-5-rom-1/f-1070992-rcddelpwiaiznrec.html?idOffre=4265819838&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956eb06d20551da54829bdc0fad1fa69447060287a9a8079bbb32dc4bea8f04f64249e4f6dd833e213294b8346a8a617273#mpos=10|mp</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 256 Go - RAM 8 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - DELL E5250 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>249,00 ,</t>
+          <t>205,00 ,</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -1980,17 +1992,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-1070992-rcdleno0138ec.html?idOffre=2150863316&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f403fc82e9a021454fca37eeaa80bd511621bc457fd9ea434221bac8a2e10b21a3cf328e12e0fcdb0c27c2c05270b48936e4a443f1af110939a1c63ec485b95b758#mpos=11|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-inspiron-910-8-9/f-1070992-rcddelhwpfvuwrec.html?idOffre=4265820522&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956e31addc18463d962acda6ceded89a8e35a5c880f385cb13579d5801642d635622461fff52140a36f9266cbab7f5f8f46#mpos=11|mp</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 2To - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - DELL Inspiron 910 - 8,9 " - ROM 16 Go - RAM 1024 Mo- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>329,00 ,</t>
+          <t>199,00 ,</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -1999,17 +2011,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0239ec.html#mpos=12|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-4go-120-go-ssd/f-1070992-len3663369101091.html#mpos=12|mp</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 240Go - Linux- Reconditionné - Etat correct</t>
+          <t>Pc portable Lenovo X240 - i5 - 4Go - 120 Go SSD - 12,5'' - W10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>309,00 ,</t>
+          <t>199,00 ,</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -2018,100 +2030,106 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7240-8go-256go-ssd/f-1070992-del3700868420121.html#mpos=13|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x220-i5-8go-320go-hdd-1/f-1070992-len3663369036249.html#mpos=13|mp</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PC Portable - Dell - Latitude E7240 - Intel Core i5 - 8Go RAM - 256Go SSD - 12,5" HD</t>
+          <t>Pc portable Lenovo X220 - i5 - 8Go - 320Go HDD - 12,5'' - W7</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>201,47 ,</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+          <t>369,00 ,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>369,00 €</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x-220-core-i5-4-go-ram/f-1070992-len8945016106914.html#mpos=14|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0118ec.html#mpos=14|mp</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Pc portable LENOVO THINKPAD X 220 core i5 4 go ram 1 to disque dur,ordinateur portable ultrabook  reconditionné par pro avec 25</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 120Go - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>409,00 ,</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>409,00 €</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>409</v>
-      </c>
+          <t>269,00 ,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x220-i5-8go-320go-hdd-1/f-1070992-len3663369036249.html#mpos=15|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-core-i5-4go-128go-ssd-sw-be/f-1070992-len7352382674519.html#mpos=15|mp</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Pc portable Lenovo X220 - i5 - 8Go - 320Go HDD - 12,5'' - W7</t>
+          <t>Ordinateur Portable - Lenovo - ThinkPad X220 - Core i5 2,5GHz - 4Go RAM - 128Go SSD</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>369,00 ,</t>
+          <t>359,00 ,</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>369,00 €</t>
+          <t>359,00 €</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0118ec.html#mpos=16|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-2325/f-1070992-len0887770838169.html#mpos=16|mp</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 120Go - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable LENOVO ThinkPad X230 2325 -…</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>269,00 ,</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+          <t>299,00 ,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>299,00 €</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-core-i5-4go-128go-ssd-sw-be/f-1070992-len7352382674519.html#mpos=17|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x220-i5-4go-120go-ssd-12/f-1070992-len3663369056131.html#mpos=17|mp</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ordinateur Portable - Lenovo - ThinkPad X220 - Core i5 2,5GHz - 4Go RAM - 128Go SSD</t>
+          <t>Pc portable Lenovo X220 - i5 - 4Go -120Go SSD - 12,5'' - W7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2169,17 +2187,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-8/f-1070992-len8944595383709.html?idOffre=1817526297&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f403fc82e9a021454fca37eeaa80bd51162cf9ac089c86aac068ee37203868e06ac12a5f7a8215d77a59a09e8b13cac5b6cdbb10abd6f99d19fd5cb9eed5caeab82#mpos=20|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-480/f-1070992-rcdhpbsgttpwrec.html?idOffre=4265821544&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956d8b4e64bb759bd96fbfe5a6f1465110a05979d0842e4ab089faf602fe9a45c4ea491f5c20a5d9dc3ed801c3bd8f805b9#mpos=20|mp</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LENOVO - ThinkPad X230 - Ordinateur portable - Processeur Core i5 - RAM 8 Go - Stockage SSD 240 Go - Windows 10 - Reconditionné</t>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 480 Go - RAM 16 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>239,00 ,</t>
+          <t>199,00 ,</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -2188,36 +2206,42 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0139ec.html?idOffre=2150863135&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f403fc82e9a021454fca37eeaa80bd5116261b5f3a47dfd8ad3ce1b7739c0f87eff321e6e7c9a4b17af776793ccc414268baac7a8c15182ad23fba8f2d19563e7f7#mpos=21|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-e5270-12-5-reco/f-1070992-rcddelojnaqrvrec.html?idOffre=4264939184&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a3652487863bb02d3434f4cfe86f670d78a6edb0a43b22ed2159e13b30b3ffeda04046245eea98f777c1d0c02b5a108adc8d1db60099be99489fc444cdae5c6eb79da7a#mpos=21|mp</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 1To - Linux- Reconditionné - Etat correct</t>
+          <t>PC portable - DELL - Latitude E5270 - 12,5"- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>339,00 ,</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+          <t>299,00 ,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>299,00 €</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e7270-12-5-rom-1/f-1070992-rcddelvjfaugtrec.html?idOffre=4265820759&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f403fc82e9a021454fca37eeaa80bd511620d72d5921bfcc51c15447a181a2ac8de879bfcdb9dbcde795096b13bfc053777f4ee84708789edf97c0076be952ac85a#mpos=22|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-480/f-1070992-rcdhptscvnjbrec.html?idOffre=4265820671&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956cd5673583a2038aa12b21eba57e3ad85aab23a46b1652616c3a4a6257a5af94671f78aa6b825bd28c920c409b4b361c9#mpos=22|mp</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ordinateur portable - DELL E7270 - 12,5 " - ROM 1 To - RAM 8 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 480 Go - RAM 16 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>309,00 ,</t>
+          <t>199,00 ,</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -2226,51 +2250,45 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x220-i5-4go-120go-ssd-12/f-1070992-len3663369056131.html#mpos=23|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateurs-portables-hp-2570p-core-i5-3360m-8/f-1070992-hp3663369026998.html#mpos=23|mp</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Pc portable Lenovo X220 - i5 - 4Go -120Go SSD - 12,5'' - W7</t>
+          <t>Ordinateurs portables HP 2570P - Core i5-3360M - 8Go - 120Go SSD -Windows 10</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>359,00 ,</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>359,00 €</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>359</v>
-      </c>
+          <t>239,00 ,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-2325/f-1070992-len0887770838169.html#mpos=24|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-i5-4g-160go-ssd-sw/f-1070992-len0949870963964.html#mpos=24|mp</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ordinateur portable LENOVO ThinkPad X230 2325 -…</t>
+          <t>Ordinateur Portable - Lenovo - ThinkPad X220 - Intel Core i5 - 4Go RAM - 160Go SSD - 12,5"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>299,00 ,</t>
+          <t>389,00 ,</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>299,00 €</t>
+          <t>389,00 €</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>299</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89">
@@ -2301,17 +2319,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateurs-portables-hp-2570p-core-i5-3360m-8/f-1070992-hp3663369026998.html#mpos=26|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0237ec.html#mpos=26|mp</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ordinateurs portables HP 2570P - Core i5-3360M - 8Go - 120Go SSD -Windows 10</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 120Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>239,00 ,</t>
+          <t>289,00 ,</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -2320,42 +2338,36 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-i5-4g-160go-ssd-sw/f-1070992-len0949870963964.html#mpos=27|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-e5250-i5-5300u-4go-ssd-120go/f-1070992-del3663369144265.html#mpos=27|mp</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ordinateur Portable - Lenovo - ThinkPad X220 - Intel Core i5 - 4Go RAM - 160Go SSD - 12,5"</t>
+          <t>Pc portable Dell E5250 - i5-5300U -4Go - SSD 120Go - Windows 10</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>389,00 ,</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>389,00 €</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>389</v>
-      </c>
+          <t>229,00 ,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-e5250-i5-5300u-4go-ssd-120go/f-1070992-del3663369144265.html#mpos=28|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x240-core-i5-ram-8g/f-1070992-rcdleno0057ec.html#mpos=28|mp</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Pc portable Dell E5250 - i5-5300U -4Go - SSD 120Go - Windows 10</t>
+          <t>Ordinateur Portable Lenovo x240 - Core i5 - RAM 8Go - HDD 500Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>229,00 ,</t>
+          <t>249,00 ,</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -2364,36 +2376,42 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x240-core-i5-ram-8g/f-1070992-rcdleno0057ec.html#mpos=29|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-128go-ssd/f-10709-len3700868424914.html#mpos=29|mp</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x240 - Core i5 - RAM 8Go - HDD 500Go - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - Lenovo ThinkPad X220 128Go SSD</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>249,00 ,</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+          <t>359,00 ,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>359,00 €</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0133ec.html?idOffre=2150905807&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f403fc82e9a021454fca37eeaa80bd511625b37282dfe8cc09dae6f760733fe5ca5841b50f347f7e40b0ef12ace3b9ec9ea12048ef3af4531a45effea7a0c19a9ef#mpos=30|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e7270-12-5-rom-25/f-1070992-rcddelyzazoeirec.html?idOffre=4265823125&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956297e55520ae75c77e83e7f90f64b1ccac704fb267e501b0ccf90c7a95bb2107842ef1e06d64bfcef946b831363af9e76#mpos=30|mp</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 500Go - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - DELL E7270 - 12,5 " - ROM 256 Go - RAM 8 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>249,00 ,</t>
+          <t>199,00 ,</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -2402,17 +2420,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e7270-12-5-rom-48/f-1070992-rcddelfhygcsnrec.html?idOffre=4265821731&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f403fc82e9a021454fca37eeaa80bd5116214fdbed08b6b2e7df7a9baab5710f7885366804481004c0d0d83d71bdf13a14f2a090a580a2060fefa33e0299d1e325d#mpos=31|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0139ec.html?idOffre=2150863135&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956a99337372413e55e06a981b8caf7e09932df796334f3457affd20682147e23d9b636c481b22f50d2f5335b869ea3af7f#mpos=31|mp</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ordinateur portable - DELL E7270 - 12,5 " - ROM 480 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 1To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>235,00 ,</t>
+          <t>339,00 ,</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -2446,17 +2464,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0122ec.html#mpos=33|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-e5250-i5-5300u-8go-ssd-120g/f-1070992-del3663369144258.html#mpos=33|mp</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 2To - Windows 10- Reconditionné - Etat correct</t>
+          <t>Pc portable Dell E5250 - i5-5300U - 8Go - SSD 120Go - Windows 10</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>349,00 ,</t>
+          <t>199,00 ,</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -2484,17 +2502,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0242ec.html#mpos=35|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0122ec.html#mpos=35|mp</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 1To - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 2To - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>379,00 ,</t>
+          <t>349,00 ,</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -2503,42 +2521,36 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-128go-ssd/f-10709-len3700868424914.html#mpos=36|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0242ec.html#mpos=36|mp</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Lenovo ThinkPad X220 128Go SSD</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 1To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>359,00 ,</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>359,00 €</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>359</v>
-      </c>
+          <t>379,00 ,</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-4go-120-go-ssd/f-1070992-len3663369101091.html#mpos=37|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0236ec.html#mpos=37|mp</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Pc portable Lenovo X240 - i5 - 4Go - 120 Go SSD - 12,5'' - W10</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 500Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
+          <t>289,00 ,</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -2547,17 +2559,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-e5250-i5-5300u-8go-ssd-120g/f-1070992-del3663369144258.html#mpos=38|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-1070992-rcdleno0119ec.html#mpos=38|mp</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Pc portable Dell E5250 - i5-5300U - 8Go - SSD 120Go - Windows 10</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 1To - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
+          <t>299,00 ,</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -2566,17 +2578,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7240-4go-128go-ssd/f-1070992-del3700868430939.html#mpos=39|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0135ec.html#mpos=39|mp</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PC Portable - Dell - Latitude E7240 - Intel Core i5 - 4Go RAM - 128Go SSD - 12,5" HD</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 1To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>189,00 ,</t>
+          <t>279,00 ,</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -2585,42 +2597,36 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-7290-12-5-recon/f-1070992-rcddelybzneyqtbe.html?idOffre=4288157159&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623cea847f915dfd9c1907c3ec7ba76701cd218d2d3bd8668924d2456036026a3c3d645701776cf2701ae45ce19803b3e44d81acedc28cfce21f064c9e71e6ad69494615f4ac84f61b9e5d6abb275e1fa6b9f7bab22a6d4a117dba1ae32d6e6e99f0#mpos=40|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-1-t/f-1070992-rcdhpongdewarec.html?idOffre=4265821659&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca4495624aae3444f764c022e7e54ea813af45e350b0788397d15d94325fe40047944dd442211d2a298fd2ff54847fca5439889#mpos=40|mp</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PC portable - DELL - Latitude 7290 - 12,5"- Reconditionné - Très bon état</t>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>599,00 ,</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>599,00 €</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>599</v>
-      </c>
+          <t>215,00 ,</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x280-12-5-rom-1/f-1070992-rcdlengrdjnohrec.html?idOffre=4265821359&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40781e8cea988fc0c8e5f376a9847e97b0254aa672bc110d9224dc5d737f5dc6f7af04dc719b60ffd8f9979775a63da4925a2adde472f8dae3ea2e39e8eb18db6f#mpos=41|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e7270-12-5-rom-48/f-1070992-rcddelfhygcsnrec.html?idOffre=4265821731&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956dd97cd2bf20de86d426c64aea8d8119c9d57227666a9584a0ecbaa9be6b85de0f4e33f10dda3bb04f7174ffea42357f8#mpos=41|mp</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 1 To - RAM 8 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - DELL E7270 - 12,5 " - ROM 480 Go - RAM 16 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>289,00 ,</t>
+          <t>235,00 ,</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -2654,17 +2660,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0241ec.html#mpos=43|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0223ec.html#mpos=43|mp</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 2To - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 240Go - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>369,00 ,</t>
+          <t>329,00 ,</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -2673,36 +2679,42 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0240ec.html#mpos=44|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0226ec.html#mpos=44|mp</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 480Go - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 1To - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>329,00 ,</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+          <t>699,00 ,</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>699,00 €</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>699</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-1070992-rcdleno0119ec.html#mpos=45|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-1070992-rcdleno0123ec.html#mpos=45|mp</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 1To - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 1To - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>299,00 ,</t>
+          <t>359,00 ,</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -2711,36 +2723,42 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0236ec.html#mpos=46|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x-220-core-i5-8-go-ram/f-1070992-len8945016106969.html#mpos=46|mp</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 500Go - Linux- Reconditionné - Etat correct</t>
+          <t>Pc portable LENOVO THINKPAD X 220 core i5 8 go ram 120 go ssd disque dur,ordinateur portable ultrabook  reconditionné par pro avec</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>289,00 ,</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+          <t>379,00 ,</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>379,00 €</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0135ec.html#mpos=47|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0240ec.html#mpos=47|mp</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 1To - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 480Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>279,00 ,</t>
+          <t>329,00 ,</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -2749,42 +2767,36 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0226ec.html#mpos=48|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0241ec.html#mpos=48|mp</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 1To - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 2To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>699,00 ,</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>699,00 €</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>699</v>
-      </c>
+          <t>369,00 ,</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-1070992-rcdleno0123ec.html#mpos=49|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7240-4go-128go-ssd/f-1070992-del3700868430939.html#mpos=49|mp</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 1To - Windows 10- Reconditionné - Etat correct</t>
+          <t>PC Portable - Dell - Latitude E7240 - Intel Core i5 - 4Go RAM - 128Go SSD - 12,5" HD</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>359,00 ,</t>
+          <t>189,00 ,</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -2793,124 +2805,130 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e7270-12-5-rom-25/f-1070992-rcddelyzazoeirec.html?idOffre=4265823125&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956297e55520ae75c77e83e7f90f64b1ccac704fb267e501b0ccf90c7a95bb210784e95ee1c289ba3c3e8e2a26eb3fca625#mpos=50|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e5250-8go-ss/f-10709-del3663369198534.html?idOffre=2845710376&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a3652487863bb02d3434f4cfe86f670d78a6edbdb460ea19ecf51e54914e6d81cf54cb54b617f68747fe1363b3f86b8728f54250116afdfd0b44e489f4dcd44e46b4206#mpos=50|mp</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ordinateur portable - DELL E7270 - 12,5 " - ROM 256 Go - RAM 8 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - Dell Latitude E5250 - 8Go - SSD 240Go</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+          <t>339,00 ,</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>339,00 €</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-4/f-1070992-len8944595383655.html?idOffre=1817528396&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40781e8cea988fc0c8e5f376a9847e97b06c7a2f12d88704ab8843eb9ea7cb37eb9e0925dde2d4350d973f3b6a0f07673faf3c16363813b2c9410191244bedea7e#mpos=51|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0133ec.html?idOffre=2150905807&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956852b4275d9c2da0f9db62c5e52f5f3ee6b412199a140ace56b1ae9685ce8b234a807d618532bc33ef0e81839261a8874#mpos=51|mp</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Lenovo - Ordinateur Portable ThinkPad X230 - Core i5 - RAM 4Go - Stockage SSD 240Go - Windows 10 - Reconditionné</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 500Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>549,00 ,</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>549,00 €</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>549</v>
-      </c>
+          <t>249,00 ,</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x-220-core-i5-8-go-ram/f-1070992-len8945016106969.html#mpos=52|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0225ec.html#mpos=52|mp</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Pc portable LENOVO THINKPAD X 220 core i5 8 go ram 120 go ssd disque dur,ordinateur portable ultrabook  reconditionné par pro avec</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 2To - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>379,00 ,</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>379,00 €</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>379</v>
-      </c>
+          <t>389,00 ,</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0223ec.html#mpos=53|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x220-ultrabook/f-1070992-len7296667699579.html#mpos=53|mp</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 240Go - Windows 10- Reconditionné - Etat correct</t>
+          <t>ordinateur portable lenovo thinkpad x220 ultrabook intel core i5 4go ram 240Go SSD DRIVES disque dur wifi windows 7 pc portable rec</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>329,00 ,</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+          <t>389,00 ,</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>389,00 €</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0139ec.html#mpos=54|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-4/f-1070992-len8944595383662.html#mpos=54|mp</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 1To - Linux- Reconditionné - Etat correct</t>
+          <t>ordinateur portable lenovo thinkpad X230 core i5 4 go ram 128 go disque dur SSD,windows 10</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>339,00 ,</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+          <t>369,00 ,</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>369,00 €</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0237ec.html#mpos=55|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-1-6ghz-8go-ddr3-240go/f-1070992-len4898807375492.html#mpos=55|mp</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 120Go - Linux- Reconditionné - Etat correct</t>
+          <t>PC Portable LENOVO X240 - i5 1.6Ghz 8Go DDR3 240Go SSD WIFI W10Pro</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>289,00 ,</t>
+          <t>229,00 ,</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -2919,36 +2937,42 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-1070992-rcdleno0225ec.html#mpos=56|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x230-4go-128go-ssd/f-10709-len3700868438010.html#mpos=56|mp</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - HDD 2To - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - Lenovo ThinkPad X230 4Go 128Go SSD</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>389,00 ,</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+          <t>369,00 ,</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>369,00 €</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-10709-rcdleno0215ec.html#mpos=57|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0140ec.html#mpos=57|mp</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 240Go - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 2To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>299,00 ,</t>
+          <t>399,00 ,</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -2957,115 +2981,115 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0213ec.html#mpos=58|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x230-4go-128go-ssd/f-10709-len3700868430656.html#mpos=58|mp</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 120Go - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - Lenovo ThinkPad X230 - 4Go - 128Go SSD</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>279,00 ,</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+          <t>402,00 ,</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>402,00 €</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>402</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x230-8go-hdd-320go/f-10709-len3700868444387.html#mpos=59|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-4go-320go/f-10709-len3700868412409.html#mpos=59|mp</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Lenovo - Ordinateur portable-Lenovo ThinkPad - 320Go - Intel Core i5-3320M 2,60GHz - 8Go (8192Mo)</t>
+          <t>Lenovo - Ordinateur portable- - 320Go - Intel Core i5-2520M 2,50GHz - 4Go (4096Mo)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>399,00 ,</t>
+          <t>349,00 ,</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>399,00 €</t>
+          <t>349,00 €</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0231ec.html#mpos=60|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x230-4go-128go-ssd/f-10709-len3700868430991.html#mpos=60|mp</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 240Go - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - Lenovo ThinkPad X230 4Go 128Go SSD</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>279,00 ,</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+          <t>399,00 ,</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>399,00 €</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-4go-320go/f-10709-len3700868412409.html#mpos=61|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-10709-rcdleno0215ec.html#mpos=61|mp</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lenovo - Ordinateur portable- - 320Go - Intel Core i5-2520M 2,50GHz - 4Go (4096Mo)</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 240Go - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>349,00 ,</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>349,00 €</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>349</v>
-      </c>
+          <t>299,00 ,</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x230-4go-128go-ssd/f-10709-len3700868430991.html#mpos=62|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0134ec.html#mpos=62|mp</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Lenovo ThinkPad X230 4Go 128Go SSD</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 120Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>399,00 ,</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>399,00 €</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>399</v>
-      </c>
+          <t>249,00 ,</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -3077,7 +3101,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-16--fhd-intel/f-10709-aaast16610.html?idOffre=4230457929&amp;sw=9d945c9aae30b0f688d82ee2684156cebc87ffacfbcbf21cfa9bc78b323983d4c6ff7ac11c9c3c9e5656e428fa5ef3cb1812d118aca4d4f0b09590ebce9b46d5b20693605a35aaabbc6795487ed5d0fdd0ecc3b259faa3f84e00f99d14289a5f0612d41f7b0c554f8226a28c5d9f9f5ddf7345597f59a08136203b478baf941eed621ff68c96d9be809e0f11411398ce#cm_rr=SE:22334455:SW:MCAR</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-16fhd-intel-core/f-10709-aabsl96152.html?idOffre=4277118762&amp;sw=9d945c9aae30b0f688d82ee2684156cebc87ffacfbcbf21cfa9bc78b323983d49670c85aa67675b2130c2dcd803b06e7961c488f55cad48bcbb3b1cd1812a567fda475fcb00947072c1071690c7494b05f63b0d22bfae6eef65187882c777df66a3d1207849cf89f91b2bcf9f5dd4248a2aa0beae366e8e628f93eb55183e539ee74fedcaf815e58a6730a82481bc4ed#cm_rr=SE:22334455:SW:MCAR</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -3099,79 +3123,67 @@
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Ordinateur Portable - Dell - Latitude E7270 - Intel Core i5 - 8Go RAM - SSD 240Go</t>
+          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 1 To - RAM 8 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>429,00 ,</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>429,00 €</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>429</v>
-      </c>
+          <t>289,00 ,</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ordinateur Portable - Lenovo - ThinkPad X260 - Core i5 2.3 GHz - 8 Go RAM - 500 Go HDD</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 2To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>499,00 ,</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>499,00 €</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>499</v>
-      </c>
+          <t>329,00 ,</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DELL PC Portable Latitude 12 5289 - 12.5" écran tactile 1920 x 1080 (Full HD) - 8 Go de RAM - 256 Go SSD - Core i5 7300U / 2.6 GHz</t>
+          <t>Lenovo - Ordinateur Portable ThinkPad X230 - Core i5 - RAM 4Go - Stockage SSD 240Go - Windows 10 - Reconditionné</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>250,00 ,</t>
+          <t>549,00 ,</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>250,00 €-10%</t>
+          <t>549,00 €</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>225</v>
+        <v>549</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0213ec.html#mpos=4|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0228ec.html#mpos=4|mp</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 120Go - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 500Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>279,00 ,</t>
+          <t>259,00 ,</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -3180,61 +3192,61 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x230-8go-hdd-320go/f-10709-len3700868444387.html#mpos=5|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0216ec.html#mpos=5|mp</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Lenovo - Ordinateur portable-Lenovo ThinkPad - 320Go - Intel Core i5-3320M 2,60GHz - 8Go (8192Mo)</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 480Go - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>399,00 ,</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>399,00 €</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>399</v>
-      </c>
+          <t>319,00 ,</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-e5250-16go-hdd-500go/f-1070992-del3701445819208.html?idOffre=2187366099&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f403fc82e9a021454fca37eeaa80bd511621cca60243dc315c9f592fe37b20ba54da18cb732c8bfb0789c69b29150bc63bd0e30cf27ce11996b037982ff5f01933f#mpos=6|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-7290-12-5-recon/f-1070992-rcddelybzneyqtbe.html?idOffre=4288157159&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623cea847f915dfd9c1907c3ec7ba76701cd218d2d3bd8668924d2456036026a3c3d115c8102aa68ce8bd0e5409e4a9efff78af9dd510b1fdd439e66118cb29fb88e59e5ea3bb7efe162764df16069a368723ab33170d8b62c88cbdf43b4fc57cada#mpos=6|mp</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PC Portable Dell Latitude E5250 - 16Go - HDD 500Go  (5807)</t>
+          <t>PC portable - DELL - Latitude 7290 - 12,5"- Reconditionné - Très bon état</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>268,00 ,</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+          <t>599,00 ,</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>599,00 €</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>599</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0231ec.html#mpos=7|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0232ec.html#mpos=7|mp</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 240Go - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 480Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>279,00 ,</t>
+          <t>299,00 ,</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -3243,67 +3255,55 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-4go-320go/f-10709-len3700868412409.html#mpos=8|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-1070992-rcdleno0124ec.html#mpos=8|mp</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lenovo - Ordinateur portable- - 320Go - Intel Core i5-2520M 2,50GHz - 4Go (4096Mo)</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 2To - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>349,00 ,</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>349,00 €</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>349</v>
-      </c>
+          <t>419,00 ,</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x230-4go-128go-ssd/f-10709-len3700868430991.html#mpos=9|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-10709-rcdleno0235ec.html#mpos=9|mp</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Lenovo ThinkPad X230 4Go 128Go SSD</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 2To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>399,00 ,</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>399,00 €</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>399</v>
-      </c>
+          <t>409,00 ,</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-7280-ultrabook-core-i5-7300u-2-6-g/f-1070992-del5397184018255.html?idOffre=4266703928&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c2cea375e22ef39122bec501e7c14708fb988399f0b6548d928c3423de4f1c7f4b322d65fa7029ae278e98de261ce8d709d3557f37fa44c8d1ec748ba7c17ee12b4da6f439e98324fa8a7030bf4ba54a7924ba6c25872f1c24e73487ed3f36366#mpos=10|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-8/f-1070992-len8944595383709.html?idOffre=1817526297&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956fc33d4913ff50594d032c0c59ed4dfc93df1dca1cb79eff3c518d2ab04fe06992fa5c5c63fcd2addc51f9f9f6ee4e9ff#mpos=10|mp</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Dell Latitude 7280 Ultrabook Core i5 7300U - 2.6 GHz Win 10 Pro 64 bits 8 Go RAM 256 Go SSD 12.5" 1920 x 1080 (Full HD) HD…</t>
+          <t>LENOVO - ThinkPad X230 - Ordinateur portable - Processeur Core i5 - RAM 8 Go - Stockage SSD 240 Go - Windows 10 - Reconditionné</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>180,00 ,</t>
+          <t>239,00 ,</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -3312,42 +3312,36 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-pavilion-touchsmart-11-e032sf/f-1070992-hp0888182054321.html?idOffre=1817521910&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956655290d8bae5ea98b7fd7a142428fdf2ab6ce353cc61d74e96a8d1040c99a302ff7f08d26475fc76161c645b7cf2d841#mpos=11|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x280-12-5-rom-2/f-1070992-rcdlennishkvjrec.html?idOffre=4265822323&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956daf846479aa782071bfb944141ab1ed1f62503944a01f01e07b3d35d4a6f983977912cd98f76014e77330ccfa049167a#mpos=11|mp</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>HP Pavilion TouchSmart 11-e032sf</t>
+          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 256 Go - RAM 8 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>499,00 ,</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>499,00 €</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>499</v>
-      </c>
+          <t>249,00 ,</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0134ec.html#mpos=12|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0214ec.html#mpos=12|mp</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 120Go - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 1To - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>249,00 ,</t>
+          <t>309,00 ,</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -3356,136 +3350,124 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x230-4go-128go-ssd/f-10709-len3700868430656.html#mpos=13|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-8go-120-go-ssd/f-1070992-len3663369045258.html#mpos=13|mp</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Lenovo ThinkPad X230 - 4Go - 128Go SSD</t>
+          <t>Pc portable Lenovo X240 - i5 - 8Go - 120 Go SSD - 12,5'' - W10</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>402,00 ,</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>402,00 €</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>402</v>
-      </c>
+          <t>209,00 ,</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x230-4go-128go-ssd/f-10709-len3700868438010.html#mpos=14|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7270-16go-500go-ssd/f-10709-del3700868471994.html#mpos=14|mp</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Lenovo ThinkPad X230 4Go 128Go SSD</t>
+          <t>Ordinateur portable - Dell Latitude E7270 - 16Go - 512Go SSD</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>369,00 ,</t>
+          <t>699,00 ,</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>369,00 €</t>
+          <t>699,00 €</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>369</v>
+        <v>699</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-1-6ghz-8go-ddr3-240go/f-1070992-len4898807375492.html#mpos=15|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-4go-160go/f-10709-len3700868416223.html#mpos=15|mp</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PC Portable LENOVO X240 - i5 1.6Ghz 8Go DDR3 240Go SSD WIFI W10Pro</t>
+          <t>Lenovo - Ordinateur portable-Lenovo ThinkPad - 160Go - Intel Core i5-2520M 2,50GHz - 4Go (4096Mo)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>229,00 ,</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+          <t>389,00 ,</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>389,00 €</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-4/f-1070992-len8944595383662.html#mpos=16|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0136ec.html#mpos=16|mp</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ordinateur portable lenovo thinkpad X230 core i5 4 go ram 128 go disque dur SSD,windows 10</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 240Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>369,00 ,</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>369,00 €</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>369</v>
-      </c>
+          <t>269,00 ,</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x220-ultrabook/f-1070992-len7296667699579.html#mpos=17|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-10709-rcdleno0218ec.html#mpos=17|mp</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ordinateur portable lenovo thinkpad x220 ultrabook intel core i5 4go ram 240Go SSD DRIVES disque dur wifi windows 7 pc portable rec</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 1To - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>389,00 ,</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>389,00 €</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>389</v>
-      </c>
+          <t>369,00 ,</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0140ec.html#mpos=18|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0243ec.html#mpos=18|mp</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 2To - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 2To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>399,00 ,</t>
+          <t>439,00 ,</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -3494,42 +3476,42 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-4go-160go-ssd/f-10709-len3700868421401.html#mpos=19|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x-220-core-i5-8-go-ram/f-1070992-len8945016106976.html#mpos=19|mp</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Lenovo ThinkPad X220 4Go 160Go SSD</t>
+          <t>Pc portable LENOVO THINKPAD X 220 core i5 8 go ram 240 go ssd disque dur,ordinateur portable ultrabook  reconditionné par pro avec</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>389,00 ,</t>
+          <t>409,00 ,</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>389,00 €</t>
+          <t>409,00 €</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>389</v>
+        <v>409</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-5280-8go-240/f-10709-del3663369283643.html?idOffre=3653615606&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956a10aae8fcbeb01c737445d53644d400b7b5ee352e5f58b8b9fd747fa53ad43ec5f5593cc9e7f0251c9c6d74637e712b5#mpos=20|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e7270-12-5-rom-1/f-1070992-rcddelvjfaugtrec.html?idOffre=4265820759&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca4495674d1b3aa6be864556b19a4bcb5bd81094267c86257aacf85b6f65906927db4f27bafa7f06746419af34dd6318d435795#mpos=20|mp</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Dell Latitude 5280 - 12,5" - Intel Core i5 - 8Go (8192Mo) RAM - 256Go SSD - Noir - Reconditonné</t>
+          <t>Ordinateur portable - DELL E7270 - 12,5 " - ROM 1 To - RAM 8 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
+          <t>309,00 ,</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -3538,143 +3520,161 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x280-intel-r-core-i5-de-8eme-gen/f-1070992-len0192158808239.html?idOffre=4243214768&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40781e8cea988fc0c8e5f376a9847e97b02b205392ca6b5779f832e6c026b4bb75f37f9f2d9b78a510b221d72ecbee7743b1768e0fd621e13bd44c85f9fdcf08f8#mpos=21|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7270-8go-24/f-1070992-del3663369196479.html?idOffre=1854150530&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca449566fc982f691314aeaa23097a8ecf4d75c0af5b95e91e82f500781aba5f053ed8a593d5231807d511190343a0b2a9b74e6#mpos=21|mp</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad X280, Intel® Core™ i5 de 8eme génération, 1,60 GHz, 31,8 cm (12.</t>
+          <t>Ordinateur Portable - Dell - Latitude E7270 - Intel Core i5 - 8Go RAM - SSD 240Go</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>269,00 ,</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
+          <t>429,00 ,</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>429,00 €</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-4go-128go-ssd/f-10709-len3700868421395.html#mpos=22|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-tablette-2-en-1-lenovo-chromebook-duet-11m889/f-10709-83hh0029fr.html?idOffre=4198228829&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623cc6fa4756ad42743b98cb93eb6d62d64005702b6988010c8cba9d50ed4be70982ff7054398ff33474ed5af66379e3acb8951564fd9fbb99e2d1a50fd7f8303a024b4c5f2e8e661391b68c7eb37e8a13d3a81b735ba51c5ae29fd219778446c4a4#mpos=22|cd</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Lenovo ThinkPad X220 4Go 128Go SSD</t>
+          <t>PC Tablette 2 en 1 LENOVO Chromebook Duet 11M889 | Chrome OS - 10,95" WUXGA - MTK Kompanio 838 - RAM 8 Go - SSD 128 Go - AZERTY</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>359,00 ,</t>
+          <t>399,99 ,</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>359,00 €</t>
+          <t>399,99 €</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>359</v>
+        <v>399.99</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0219ec.html#mpos=23|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x230-4go-128go-ssd/f-10709-len3700868438010.html#mpos=23|mp</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 2To - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - Lenovo ThinkPad X230 4Go 128Go SSD</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>429,00 ,</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+          <t>369,00 ,</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>369,00 €</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-4go-128go-ssd/f-10709-len3700868454379.html#mpos=24|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-1-6ghz-8go-ddr3-240go/f-1070992-len4898807375492.html#mpos=24|mp</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Lenovo ThinkPad X220 - 4Go - 128Go SSD</t>
+          <t>PC Portable LENOVO X240 - i5 1.6Ghz 8Go DDR3 240Go SSD WIFI W10Pro</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>359,00 ,</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>359,00 €</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>359</v>
-      </c>
+          <t>229,00 ,</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-8go-120-go-ssd/f-1070992-len3663369045258.html#mpos=25|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x220-ultrabook/f-1070992-len7296667699579.html#mpos=25|mp</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Pc portable Lenovo X240 - i5 - 8Go - 120 Go SSD - 12,5'' - W10</t>
+          <t>ordinateur portable lenovo thinkpad x220 ultrabook intel core i5 4go ram 240Go SSD DRIVES disque dur wifi windows 7 pc portable rec</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>209,00 ,</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+          <t>389,00 ,</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>389,00 €</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0232ec.html#mpos=26|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-4/f-1070992-len8944595383662.html#mpos=26|mp</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 480Go - Linux- Reconditionné - Etat correct</t>
+          <t>ordinateur portable lenovo thinkpad X230 core i5 4 go ram 128 go disque dur SSD,windows 10</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>299,00 ,</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
+          <t>369,00 ,</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>369,00 €</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0214ec.html#mpos=27|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0140ec.html#mpos=27|mp</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 1To - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 2To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>309,00 ,</t>
+          <t>399,00 ,</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -3683,55 +3683,67 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-1070992-rcdleno0124ec.html#mpos=28|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-4go-128go-ssd/f-10709-len3700868421395.html#mpos=28|mp</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 2To - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - Lenovo ThinkPad X220 4Go 128Go SSD</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>419,00 ,</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+          <t>359,00 ,</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>359,00 €</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0216ec.html#mpos=29|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-4go-160go-ssd/f-10709-len3700868421401.html#mpos=29|mp</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 480Go - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable - Lenovo ThinkPad X220 4Go 160Go SSD</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>319,00 ,</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+          <t>389,00 ,</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>389,00 €</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-10709-rcdleno0235ec.html#mpos=30|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-d430-windows-7-c2d-2gb-60gb-12/f-10709-del1726788194554.html?idOffre=4170777576&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c5970db668c7da8a4baef14e6d742ee927c9a5ced726d1a721653ed240738686b43df83459f10d360eeed8e81ea8708d91a1f91941bf8a1ba47c675c0f94cb102211822639465ab2013b86e60b48e1c345527b1baac2751e6b74778872a24582b#mpos=30|mp</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 2To - Linux- Reconditionné - Etat correct</t>
+          <t>Dell Latitude D430 - Windows 7 - C2D 2GB 60GB - 12.1 - Ordinateur Portable</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>409,00 ,</t>
+          <t>208,95 ,</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -3740,42 +3752,42 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7270-16go-500go-ssd/f-10709-del3700868471994.html#mpos=31|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x260-20f5-core-i5-6200u-2-3-ghz/f-1070992-len0190793773073.html?idOffre=1817526712&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca4495615fb5381d66c4a5b60d767c16b68fdeac0f0d1c94f9a7a17e17bef8b1001c045e37fa2b0f24806303493e50c35dac14e#mpos=31|mp</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Dell Latitude E7270 - 16Go - 512Go SSD</t>
+          <t>Ordinateur Portable - Lenovo - ThinkPad X260 - Core i5 2.3 GHz - 8 Go RAM - 500 Go HDD</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>699,00 ,</t>
+          <t>499,00 ,</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>699,00 €</t>
+          <t>499,00 €</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>699</v>
+        <v>499</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0137ec.html#mpos=32|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0213ec.html#mpos=32|mp</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 480Go - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 120Go - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>289,00 ,</t>
+          <t>279,00 ,</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
@@ -3784,17 +3796,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0221ec.html#mpos=33|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0233ec.html#mpos=33|mp</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 120Go - Windows 10- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 2To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>309,00 ,</t>
+          <t>339,00 ,</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -3803,36 +3815,42 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-8go-120-go-ssd/f-1070992-len3663369051044.html#mpos=34|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x-220-core-i5-8-go-ram/f-1070992-len8945016106945.html#mpos=34|mp</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Pc portable Lenovo X240 - i5 - 8Go - 120 Go SSD - 12,5'' - Linux</t>
+          <t>Pc portable LENOVO THINKPAD X 220 core i5 8 go ram 1 to disque dur,ordinateur portable ultrabook reconditionné par pro avec 25</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>209,00 ,</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
+          <t>419,00 ,</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>419,00 €</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0233ec.html#mpos=35|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0229ec.html#mpos=35|mp</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 2To - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 120Go - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>339,00 ,</t>
+          <t>259,00 ,</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -3841,17 +3859,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-1070992-rcdleno0138ec.html#mpos=36|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-16/f-10709-rcdleno0221ec.html#mpos=36|mp</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 2To - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 16Go - SSD 120Go - Windows 10- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>329,00 ,</t>
+          <t>309,00 ,</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -3860,17 +3878,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0228ec.html#mpos=37|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x240-i5-8go-120-go-ssd/f-1070992-len3663369051044.html#mpos=37|mp</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 500Go - Linux- Reconditionné - Etat correct</t>
+          <t>Pc portable Lenovo X240 - i5 - 8Go - 120 Go SSD - 12,5'' - Linux</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>259,00 ,</t>
+          <t>209,00 ,</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -3879,42 +3897,36 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x-220-core-i5-8-go-ram/f-1070992-len8945016106945.html#mpos=38|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0139ec.html#mpos=38|mp</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Pc portable LENOVO THINKPAD X 220 core i5 8 go ram 1 to disque dur,ordinateur portable ultrabook reconditionné par pro avec 25</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - SSD 1To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>419,00 ,</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>419,00 €</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>419</v>
-      </c>
+          <t>339,00 ,</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0229ec.html#mpos=39|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-1070992-rcdleno0138ec.html#mpos=39|mp</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - SSD 120Go - Linux- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable Lenovo x250 - Core i5 - RAM 8Go - HDD 2To - Linux- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>259,00 ,</t>
+          <t>329,00 ,</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -3923,281 +3935,293 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-7290-windows-11-i5-16go-256go-ss/f-10709-del3663369290016.html#mpos=40|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-pc-portable-latitude-12-5289-12-5-ecran-ta/f-1070992-del5397064011635.html?idOffre=4285184158&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c2cea375e22ef39122bec501e7c14708fb988399f0b6548d928c3423de4f1c7f41ea0ae6535c1d7626e6b48c41f13d854669013efdbbc03fbe576e7d3e96a4c153d10dc8389a904a1d4554667a3b4fb9907bd4b95f258808647e71a15e4214a07#mpos=40|mp</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Dell Latitude 7290 - Windows 11 - i5 16Go 256Go SSD - 12.5 - Webcam - Ordinateur Portable PC Noir</t>
+          <t>DELL PC Portable Latitude 12 5289 - 12.5" écran tactile 1920 x 1080 (Full HD) - 8 Go de RAM - 256 Go SSD - Core i5 7300U / 2.6 GHz</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>599,00 ,</t>
+          <t>250,00 ,</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>599,00 €</t>
+          <t>250,00 €-10%</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>599</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/apple-macbook-retina-12-2017-m3-1-2-ghz-8-go/f-1070992-macbok1070tbe.html#mpos=41|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e6220-4go-500go/f-1070992-del3700868422354.html?idOffre=2838744083&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a3652487863bb02d3434f4cfe86f670d78a6edba18675d3009af7572a8bd89a740c06c9e0bf2f42205ef220564b3c1cfed8927ab8816c9d89cb5f857b58627bf2744795#mpos=41|mp</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>APPLE MacBook Retina 12" 2017 m3 - 1,2 Ghz - 8 Go RAM - 256 Go SSD - Gris Sidéral- Reconditionné - Très bon état</t>
+          <t>Ordinateur portable Dell Latitude E6220 - Intel Core i5-2520M - 4Go - 500Go - 12,5 pouces - Windows 10</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>599,00 ,</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>599,00 €</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>599</v>
-      </c>
+          <t>179,00 ,</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x240-core-i5/f-1070992-len3701126400572.html#mpos=42|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-7290-windows-11-i5-16go-256go-ss/f-10709-del3663369290016.html#mpos=42|mp</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ordinateur Portable - LENOVO - ThinkPad X240 - Core i5 - 8 Go RAM - 512 Go SSD</t>
+          <t>Dell Latitude 7290 - Windows 11 - i5 16Go 256Go SSD - 12.5 - Webcam - Ordinateur Portable PC Noir</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>269,00 ,</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
+          <t>599,00 ,</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>599,00 €</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>599</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-e7270-12-core-i5/f-1070992-del3701157118057.html#mpos=43|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/apple-macbook-retina-12-2017-m3-1-2-ghz-8-go/f-1070992-macbok1070tbe.html#mpos=43|mp</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PC Portable - Dell Latitude E7270 - 12"  Core i5 - 8Go RAM - 256Go SSD - Windows 10 Pro - Reconditionné Etat Correct</t>
+          <t>APPLE MacBook Retina 12" 2017 m3 - 1,2 Ghz - 8 Go RAM - 256 Go SSD - Gris Sidéral- Reconditionné - Très bon état</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
+          <t>599,00 ,</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>599,00 €</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>599</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-elitebook-820-g3-i7-512/f-1070992-hp0889899049679.html#mpos=44|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x260-20f5-core-i5-6200u-2-3-ghz/f-1070992-len0190793773073.html#mpos=44|mp</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ordinateur portable HP EliteBook 820 G3 - i7 - 512Go - 4G - W7+W10 Pro</t>
+          <t>Ordinateur Portable - Lenovo - ThinkPad X260 - Core i5 2.3 GHz - 8 Go RAM - 500 Go HDD</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>399,00 ,</t>
+          <t>186,80 ,</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>399,00 €</t>
+          <t>186,80 €-10%</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>399</v>
+        <v>168.12</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5270-12-5-rom-25/f-1070992-rcddelvprldcdrec.html#mpos=45|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x240-core-i5/f-10709-len3701126400572.html#mpos=45|mp</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ordinateur portable - DELL E5270 - 12,5 " - ROM 256 Go - RAM 8 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur Portable - LENOVO - ThinkPad X240 - Core i5 - 8 Go RAM - 512 Go SSD</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>198,99 ,</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>198,99 €-10%</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>179.09</v>
-      </c>
+          <t>269,00 ,</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e5250-4go-ssd-240go/f-1070992-del3700868458704.html#mpos=46|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-e7270-12-core-i5/f-1070992-del3701157118057.html#mpos=46|mp</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ordinateur Portable - Dell - Latitude E5250 - Intel Core i5 - 4Go RAM - SSD 240Go</t>
+          <t>PC Portable - Dell Latitude E7270 - 12"  Core i5 - 8Go RAM - 256Go SSD - Windows 10 Pro - Reconditionné Etat Correct</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>429,00 ,</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>429,00 €</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>429</v>
-      </c>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5250-12-5-rom-25/f-1070992-rcddelqjxzjyzrec.html#mpos=47|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-elitebook-820-g3-i7-512/f-10709-hp0889899049679.html#mpos=47|mp</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ordinateur portable - DELL E5250 - 12,5 " - ROM 256 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+          <t>Ordinateur portable HP EliteBook 820 G3 - i7 - 512Go - 4G - W7+W10 Pro</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+          <t>399,00 ,</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>399,00 €</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7270-8go-25/f-10709-del3663369191894.html#mpos=48|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5270-12-5-rom-25/f-1070992-rcddelvprldcdrec.html#mpos=48|mp</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ordinateur portable - Dell Latitude E7270 - 8Go - 256Go SSD</t>
+          <t>Ordinateur portable - DELL E5270 - 12,5 " - ROM 256 Go - RAM 8 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>199,00 ,</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
+          <t>198,99 ,</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>198,99 €-10%</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>179.09</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-hp-820-g2-i5-8go-240go-ssd-12-5/f-1070992-hp3663369140434.html#mpos=49|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-10/f-10709-aabdo63030.html#mpos=49|mp</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Pc portable HP 820 G2 - i5 - 8Go - 240Go SSD -12.5'' - W10</t>
+          <t>Ordinateur portable, 10 pouces Ordinateur Portable Windows 11, 8 Go + 128 go, Processeur Intel Dual Core - core</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>178,60 ,</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
+          <t>399,00 ,</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>399,00 €</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x280-i7-8go-ssd256go/f-10709-aaaal62841.html#mpos=50|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-e7270-8go-ssd-256go/f-10709-del3701445817600.html?idOffre=3169495467&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a3652487863bb02d3434f4cfe86f670d78a6edb8c468b4c512a841287511b9ef40636a6987615d0a46e02a990adbadd78d0319fce8a630ecf450a150594874ae51bc02a#mpos=50|mp</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Pc portable Lenovo Thinkpad X280 12,5" FHD  i7-8550U 8Go SSD256Go Win11 Pro</t>
+          <t>PC Portable Dell Latitude E7270 - 8Go - SSD 256Go</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>269,00 ,</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
+          <t>349,00 ,</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>349,00 €</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x250-12-5-rec/f-1070992-rcdlenrtxohtbrec.html#mpos=51|mp</t>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-d430-core-2-duo-ordinateur-porta/f-10709-del3560070333189.html?idOffre=4170777498&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c5970db668c7da8a4baef14e6d742ee927c9a5ced726d1a721653ed240738686b43df83459f10d360eeed8e81ea8708d967ca5f3b1be95d96323a949d4981842356b75ad467b4d37c3a2532f2da5fa8da2c37dd82d60ca5743d231f45fa3f8ffe#mpos=51|mp</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PC portable - LENOVO - ThinkPad X250 - 12,5"- Reconditionné - Etat correct</t>
+          <t>Dell Latitude D430 - Windows XP - C2D 2GB 80GB - 12.1 - Ordinateur Portable</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>269,00 ,</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>269,00 €</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>269</v>
-      </c>
+          <t>262,50 ,</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-microsoft-surface-laptop-go-2-12/f-10709-8qc00041.html#mpos=52|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5250-12-5-rom-25/f-1070992-rcddelqjxzjyzrec.html#mpos=52|mp</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PC Portable - MICROSOFT - Surface Laptop Go 2 - 12,4" - Core i5 - RAM 8Go - Stockage 128Go - Windows 11 - AZERTY - Bleu Glacier</t>
+          <t>Ordinateur portable - DELL E5250 - 12,5 " - ROM 256 Go - RAM 16 Go- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>910,91 ,</t>
+          <t>199,00 ,</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -4206,17 +4230,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-e6230-intel-core-i5-3320/f-1070992-del3700868422149.html#mpos=53|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7270-8go-25/f-10709-del3663369191894.html#mpos=53|mp</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Pc Portable Dell Latitude E6230 Intel Core i5-3320M 2,60GHz 8Go DDR3 500Go Intel HD Graphics 4000 12,5" Windows 10 Famille</t>
+          <t>Ordinateur portable - Dell Latitude E7270 - 8Go - 256Go SSD</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>269,99 ,</t>
+          <t>199,00 ,</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
@@ -4225,17 +4249,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0212ec.html#mpos=54|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-hp-820-g2-i5-8go-240go-ssd-12-5/f-1070992-hp3663369140434.html#mpos=54|mp</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 500Go - Windows 10- Reconditionné - Etat correct</t>
+          <t>Pc portable HP 820 G2 - i5 - 8Go - 240Go SSD -12.5'' - W10</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>279,00 ,</t>
+          <t>178,60 ,</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -4244,28 +4268,2457 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-x230-12-5-core-i5-3320m-4go-320go/f-1070992-len3663369024055.html#mpos=55|mp</t>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x250-12-5-rec/f-1070992-rcdlenrtxohtbrec.html#mpos=55|mp</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ordinateur ultra-portable - Lenovo - ThinkPad X230 - 12.5'' - Core i5-3320M - 4Go RAM - 320Go HDD</t>
+          <t>PC portable - LENOVO - ThinkPad X250 - 12,5"- Reconditionné - Etat correct</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>229,00 ,</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+          <t>269,00 ,</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>269,00 €</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr"/>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x280-i7-8go-ssd256go/f-10709-aaaal62841.html#mpos=56|mp</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo Thinkpad X280 12,5" FHD  i7-8550U 8Go SSD256Go Win11 Pro</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>269,00 ,</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-microsoft-surface-laptop-go-2-12/f-10709-8qc00041.html#mpos=57|mp</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>PC Portable - MICROSOFT - Surface Laptop Go 2 - 12,4" - Core i5 - RAM 8Go - Stockage 128Go - Windows 11 - AZERTY - Bleu Glacier</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>910,91 ,</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-e6230-intel-core-i5-3320/f-1070992-del3700868422149.html#mpos=58|mp</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Pc Portable Dell Latitude E6230 Intel Core i5-3320M 2,60GHz 8Go DDR3 500Go Intel HD Graphics 4000 12,5" Windows 10 Famille</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>269,99 ,</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x260-core-i5-ram-8g/f-1070992-rcdleno0212ec.html#mpos=59|mp</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Ordinateur Portable Lenovo x260 - Core i5 - RAM 8Go - HDD 500Go - Windows 10- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>279,00 ,</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-x230-12-5-core-i5-3320m-4go-320go/f-1070992-len3663369024055.html#mpos=60|mp</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Ordinateur ultra-portable - Lenovo - ThinkPad X230 - 12.5'' - Core i5-3320M - 4Go RAM - 320Go HDD</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>229,00 ,</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-x250/f-10709-len6788284629011.html#mpos=61|mp</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Ordinateur Portable - Lenovo - ThinkPad X250 - 12 pouces - 4 Go RAM - 128 Go SSD</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-7290-12-5-recon/f-1070992-rcddelwhbgkrytbe.html#mpos=62|mp</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>PC portable - DELL - Latitude 7290 - 12,5" - Reconditionné - Très bon état</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>299,00 ,</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-16--fhd-intel/f-10709-aaast16610.html?idOffre=4230457929&amp;sw=9d945c9aae30b0f688d82ee2684156cebc87ffacfbcbf21cfa9bc78b323983d4c6ff7ac11c9c3c9e5656e428fa5ef3cb1812d118aca4d4f0b09590ebce9b46d5b20693605a35aaabbc6795487ed5d0fdd0ecc3b259faa3f84e00f99d14289a5f0612d41f7b0c554f8226a28c5d9f9f5ddf7345597f59a08136203b478baf941eed621ff68c96d9be809e0f11411398ce#cm_rr=SE:22334455:SW:MCAR</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>369,99 ,</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>369,99 €-5%</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>351.49</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Dell Latitude D430 - Windows XP - C2D 2GB 80GB - 12.1 - Ordinateur Portable</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>262,50 ,</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Dell Latitude 5290 - Windows 11 - i5 8Go 240Go SSD - 12.5 - Webcam - Ordinateur Portable PC</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>481,95 ,</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Dell Latitude 5280 - Windows 11 - i5 8Go 240Go SSD - 12.5 - Webcam - Ordinateur Portable PC</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>387,45 ,</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5270-12-5-rom-25/f-1070992-rcddeltdybihhrec.html#mpos=4|mp</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - DELL E5270 - 12,5 " - ROM 256 Go - RAM 8 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>198,99 ,</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>198,99 €-10%</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>179.09</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x250-core-i5-ram-8g/f-10709-rcdleno0094ec.html#mpos=5|mp</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Ordinateur Portable LENOVO X250 - Core I5 - RAM 8G - SSD 128G - Windows 10- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>180,00 ,</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>180,00 €-10%</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-e5250-16go-hdd-500go/f-1070992-del3701445819208.html?idOffre=2187366099&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956a17467a8be138899a581763a0a0f99917ab08c828e0c3fcf9429dc48fc3b18e06e439d3ebf328ce203b3812bc756d6c8#mpos=6|mp</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>PC Portable Dell Latitude E5250 - 16Go - HDD 500Go  (5807)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>268,00 ,</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7270-16go-2/f-10709-del3663369189471.html#mpos=7|mp</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - Dell Latitude E7270 - 16Go - 256Go SSD</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>599,00 ,</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>599,00 €</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-5290-16go-24/f-10709-del3663369165444.html#mpos=8|mp</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - Dell Latitude 5290 - 16Go - 256 Go SSD</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>269,99 ,</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x270-i7-8g/f-1070992-len0191200394102.html#mpos=9|mp</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Ordinateur portable LENOVO ThinkPad X270 - i7 - 8Go - 256 Go - W10 Pro</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>269,99 ,</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-2540p-intel-core-i7/f-1070992-hp0885631877968.html?idOffre=2838745408&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a3652487863bb02d3434f4cfe86f670d78a6edbe7cbf0ad94bfd5e2878bcb15e0e0f4e8627bb2ec6f6584ae54186d39ed627c72b0cf50e1bf9639f75948d939fc0909f8#mpos=10|mp</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>HP EliteBook 2540P Intel Core i7</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>249,00 ,</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>249,00 €</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-core-i5/f-1070992-len0645743279643.html?idOffre=2859621684&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a3652487863bb02d3434f4cfe86f670d78a6edb752d92f660ae242e5cd2781129550be21583d2ec99eb43cad2fc5206192b32286e9fe01dcd2dbf1ee29a0a50fa304448#mpos=11|mp</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>LENOVO THINKPAD X220 CORE I5</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>199,00 €</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-1-t/f-1070992-rcdhppgqztuorec.html#mpos=12|mp</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 1 To - RAM 8 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0190780919729.html#mpos=13|mp</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>449,00 ,</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e5250-4go-ssd-240go/f-1070992-del3700868458704.html#mpos=14|mp</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Ordinateur Portable - Dell - Latitude E5250 - Intel Core i5 - 4Go RAM - SSD 240Go</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>429,00 ,</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>429,00 €</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x260-i5-8go-256ssd/f-1070992-len3701126402392.html#mpos=15|mp</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Ordinateur Portable - LENOVO - THINKPAD X260 - Intel Core i5 - 8 Go RAM - 256 Go SSD</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>269,00 ,</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x280-12-5-rom-1/f-1070992-rcdlenhpzkrjmrec.html#mpos=16|mp</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>305,00 ,</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x230-i5-8-go-320-go-12/f-1070992-len3663369033491.html#mpos=17|mp</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo X230 - i5 - 8 Go - 320 Go - 12.5'' - Linux</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>379,00 ,</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>379,00 €</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0190780920138.html#mpos=18|mp</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>459,00 ,</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0190780919804.html#mpos=19|mp</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>459,00 ,</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x260-intel-r-core-i5-de-6eme-gen/f-1070992-len0190404846196.html?idOffre=4290423262&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c21672b5ae54b985828bc20fc2e4d96baaf386491aaf5bcf30f3f394f28a11236208b9b53741c68246aa4d4e9230437cef070607e8b8a1d002ad1bce6fb99e6e72e919f8cacea2c7f7b846adc9980fd532ccd8d26c642d308bacd7f337a6d4a5b#mpos=20|mp</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Lenovo ThinkPad X260, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.5"), 1366 x 768 pixels, 8 Go, 256 Go</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>179,00 ,</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>179,00 €-27%</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>130.67</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-820-g3-i5/f-1070992-hp3701126400275.html?idOffre=2838744846&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a365248b26aba4b7191a3d221b3b75b90859e1c3db758ac9d374188bec0d37e1d358bebb9816825d99f054df805dd94bffdd5ca99100d8b75ccc9c3f7981dc1a896b294#mpos=21|mp</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Ultraportable performant - HP - Elitebook 820 G3 - 12,5" - 256 Go SSD - Windows 10</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>369,00 ,</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>369,00 €</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-pavilion-touchsmart-11-e032sf/f-1070992-hp0888182054321.html?idOffre=1817521910&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956655290d8bae5ea98b7fd7a142428fdf2ab6ce353cc61d74e96a8d1040c99a3026a33cc454359865b719c475790785e49#mpos=22|mp</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>HP Pavilion TouchSmart 11-e032sf</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>499,00 ,</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>499,00 €</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x230-i5-4go-240-go-ssd/f-1070992-len3663369033460.html#mpos=23|mp</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo X230 - i5 - 4Go - 240 Go SSD - 12,5'' - W10</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>259,00 ,</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x230-i5-4go-120-go-ssd/f-1070992-len3663369033446.html#mpos=24|mp</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo X230 - i5 - 4Go - 120 Go SSD - 12,5'' - W10</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>399,00 ,</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>399,00 €</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0889899451182.html#mpos=25|mp</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>799,00 ,</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x230-i5-4go-240-go-ssd-12/f-1070992-len3663369033521.html#mpos=26|mp</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo X230 - i5 -4Go -240 Go SSD - 12,5'' - Linux</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>419,00 ,</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>419,00 €</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x230-i5-4-go-320-go-12/f-1070992-len3663369033484.html#mpos=27|mp</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo X230 - i5 - 4 Go - 320 Go - 12.5'' - Linux</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>299,00 ,</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>299,00 €</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x230-i5-4-go-320-go-12/f-1070992-len3663369033422.html#mpos=28|mp</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo X230 - i5 - 4 Go - 320 Go - 12.5'' - Win 10</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>339,00 ,</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>339,00 €</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0190780920220.html#mpos=29|mp</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-5280-8go-240/f-10709-del3663369283643.html?idOffre=3653615606&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40b4df5d00cdf5190fbe556728eca44956a10aae8fcbeb01c737445d53644d400b7b5ee352e5f58b8b9fd747fa53ad43ec6540d182880ff5903ca09e32d088842d#mpos=30|mp</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Dell Latitude 5280 - 12,5" - Intel Core i5 - 8Go (8192Mo) RAM - 256Go SSD - Noir - Reconditonné</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x220-4287/f-1070992-len0886605684100.html?idOffre=2682750284&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a3652487863bb02d3434f4cfe86f670d78a6edbc03cbfaabcacfbc13aaee8b40875474b5222dae07b3b0a34c6217da9fd2cba2133b966b60ab04d493b3172464092ccb5#mpos=31|mp</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Lenovo - ThinkPad X220 4287</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>169,00 ,</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x230-i5-8-go-320-go-12/f-1070992-len3663369033439.html#mpos=32|mp</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo X230 - i5 - 8 Go - 320 Go - 12.5'' - Win 10</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>359,00 ,</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>359,00 €</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0190780920237.html#mpos=33|mp</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-256/f-1070992-rcdhpknfoodrrec.html#mpos=34|mp</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 256 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-820-g3-core-i5-6200u-2-3-ghz-win-10/f-1070992-hp0190781127383.html#mpos=35|mp</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Ordinateur Portable - HP - EliteBook 820 G3 - Core i5 2.3 GHz - 8 Go RAM - 256 Go SSD - 12.5" Full HD</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>475,00 ,</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>475,00 €</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0889899443194.html#mpos=36|mp</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-820-g1-core-i5-ram-8g/f-1070992-rcdhp0014ec.html#mpos=37|mp</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Ordinateur Portable HP 820-G1 - Core I5 - RAM 8G - HDD 500G - Windows 7- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>349,00 ,</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>349,00 €</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-480/f-1070992-rcdhpbsgttpwrec.html#mpos=38|mp</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 480 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x260-i5-4go-120go-ssd-1/f-1070992-len3663369037062.html#mpos=39|mp</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo X260 - i5 - 4Go - 120Go SSD - 12,5''- Linux</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>239,00 ,</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x230/f-1070992-len3700868407924.html?idOffre=2632335483&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a3652487863bb02d3434f4cfe86f670d78a6edb4c00efe751aa9bd81e5ca017d03979bbedd753eb8f2f10675f55957968ff9030dd3230e1f3a8b9caba4185c8da6fdab8#mpos=40|mp</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Lenovo ThinkPad X230</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>179,00 ,</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>179,00 €</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x280-intel-r-core-i5-de-8eme-gen/f-1070992-len0192158808239.html?idOffre=4243214768&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c8b59814c4b2a99cb9a64ab7773fdf27abb7536ed7121f989cf5446e431ea4f40781e8cea988fc0c8e5f376a9847e97b02b205392ca6b5779f832e6c026b4bb75f37f9f2d9b78a510b221d72ecbee7743d806f4d3f13c3172a9a698fd5b8c76af#mpos=41|mp</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Lenovo ThinkPad X280, Intel® Core™ i5 de 8eme génération, 1,60 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>269,00 ,</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0190780920558.html#mpos=42|mp</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-256/f-1070992-rcdhpfzhmnrnrec.html#mpos=43|mp</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 256 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x240-12-5-4go-ssd-240/f-1070992-len3664990008094.html#mpos=44|mp</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo thinkpad X240 12,5" 4GO SSD 240GO Windows 10 gris</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>299,00 ,</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>299,00 €-10%</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>269.1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-x240-core-i3-1-9-ghz-hdd-160-go-ram-2-go/f-1070992-len0384609171829.html#mpos=45|mp</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Ordinateur Portable - Lenovo - Thinkpad X240 - Core i3 1.9 GHz - 2 Go RAM - 160 Go HDD</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0889899442661.html#mpos=46|mp</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-hp-820-g3-i7-8go-240go-ssd-12-5/f-10709-hp3663369141837.html#mpos=47|mp</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Pc portable HP 820 G3 - i7 - 8Go - 240Go SSD -12.5'' - W10</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>289,00 ,</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x260-i5-8go-240-go-ssd/f-1070992-len3663369035990.html#mpos=48|mp</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo X260 - i5 - 8Go - 240 Go SSD - 12,5'' - W10</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>230,00 ,</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0889899446720.html#mpos=49|mp</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-2570p-windows-7-i5-8gb-256gb-ssd/f-1070992-hp5060490783819.html?idOffre=3160850756&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623ce36d07005f838880dbb13bf7720ad20c127bf5af9fcc1fb3847a2ad98a3652487863bb02d3434f4cfe86f670d78a6edb63b3fe050cfc51075e1957270d7ea7cc74593f845cc69d5fe37cfde7f9b9dee2eb5ec3c5a4c17d86463632c24925de2f#mpos=50|mp</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Hp EliteBook 2570p - Windows 7 - i5 8GB 256GB SSD - 12.5'' - Station de Travail Mobile PC Ordinateur</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>289,00 ,</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>289,00 €</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-2560p-windows-10-i3-4go-240go-ssd/f-10709-hp1727681730245.html?idOffre=4170777614&amp;sw=9d945c9aae30b0f688d82ee2684156cee4bc72baab1909462a2093135adb623c5970db668c7da8a4baef14e6d742ee927c9a5ced726d1a721653ed240738686b43df83459f10d360eeed8e81ea8708d9d2736dc49b77f36a428d73430525036b9a9589d11aa17d5b26955e6770ef530a758837fe49438fa9dc9478a20baade6b#mpos=51|mp</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>HP EliteBook 2560p - Windows 10 - i3 4Go 240Go SSD - 12.5 - Station de Travail Mobile PC</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>456,75 ,</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0889899446768.html#mpos=52|mp</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>339,00 ,</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0889899451335.html#mpos=53|mp</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>449,00 ,</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0889899446690.html#mpos=54|mp</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0889899443200.html#mpos=55|mp</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-thinkpad-x240-12-5-4go-hdd-320/f-1070992-len3664990008070.html#mpos=56|mp</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo thinkpad X240 12,5" 4GO HDD 320GO Windows 10 gris</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>389,00 ,</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-820-g3-type-de-produit-ordinateur-p/f-1070992-hp0889894862990.html#mpos=57|mp</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>HP EliteBook 820 G3. Type de produit: Ordinateur portable, Elément de format: Clapet.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>599,00 ,</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>599,00 €</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0889899442654.html#mpos=58|mp</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0889899451342.html#mpos=59|mp</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>449,00 ,</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0889899451021.html#mpos=60|mp</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>449,00 ,</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0889899446706.html#mpos=61|mp</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0190780920268.html#mpos=62|mp</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr"/>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-16fhd-intel-core/f-10709-aabsl96152.html?idOffre=4277118762&amp;sw=9d945c9aae30b0f688d82ee2684156cebc87ffacfbcbf21cfa9bc78b323983d49670c85aa67675b2130c2dcd803b06e7961c488f55cad48bcbb3b1cd1812a56799379a207b1aa639e2aa70c17e44da431daed2a0745dd661c15df720cacf5d7d2d80857f8506a0e0c65b2b23e455a24c0e6a67f65a4a0cf04cca7bb642714a274dc50908d535c7ea0e4cfc6a1b296715#cm_rr=SE:22334455:SW:MCAR</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>369,99 ,</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>369,99 €-5%</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>351.49</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Lenovo X230 -12.5'' -Core i5-3320M -4Go -240Go SSD</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>269,00 ,</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>269,00 €</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr"/>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr"/>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>799,00 ,</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x260-i5-8go-240-go-ssd/f-1070992-len3663369035990.html#mpos=4|mp</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo X260 - i5 - 8Go - 240 Go SSD - 12,5'' - W10</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>230,00 ,</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0889899451335.html#mpos=5|mp</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>449,00 ,</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0889899446768.html#mpos=6|mp</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>339,00 ,</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0889899446720.html#mpos=7|mp</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0889899446690.html#mpos=8|mp</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0889899443200.html#mpos=9|mp</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0889899451045.html#mpos=10|mp</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0190780920565.html#mpos=11|mp</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-1-t/f-1070992-rcdhppbjngrhrec.html#mpos=12|mp</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>215,00 ,</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-10709-hp0889899451090.html#mpos=13|mp</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>459,00 ,</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0889899443224.html#mpos=14|mp</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-ordinateur-portable-elitebook-820-g3/f-1070992-hp0889899446744.html#mpos=15|mp</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>HP EliteBook Ordinateur portable EliteBook 820 G3, Intel® Core™ i5 de 6eme génération, 2,4 GHz, 31,8 cm (12.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>439,00 ,</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-7290-12-5-recon/f-1070992-rcddelegbkvwbtbe.html#mpos=16|mp</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>PC portable - DELL - Latitude 7290 - 12,5" - Reconditionné - Très bon état</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>216,98 ,</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x280-12-5-rom-2/f-1070992-rcdlennbixbxurec.html#mpos=17|mp</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 256 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>265,00 ,</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x250-12-core/f-1070992-len0190576274490.html#mpos=18|mp</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - Lenovo - Thinkpad X250 - Core i5-5300U 2.3 GHz - SSD 128 Go - RAM 8 Go</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>189,98 ,</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>189,98 €-10%</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>170.98</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x280-12-5-rom-2/f-1070992-rcdlennishkvjrec.html#mpos=19|mp</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 256 Go - RAM 8 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>249,00 ,</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/asus-chromebook-cx1100cna-ordinateur-portable-11-6/f-1070992-auc8931464194054.html#mpos=20|mp</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>ASUS Chromebook CX1100CNA Ordinateur Portable 11.6 "HD (Celeron N3350, RAM 4 Go, eMMC 64 Go, Chrome OS) Clavier AZERTY Français A310</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>540,00 ,</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/hp-elitebook-820-g3-12-core-i5-2-4-ghz-ssd-512/f-1070992-hp0190781320418.html#mpos=21|mp</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Ordinateur Portable - HP - EliteBook 820 G3 - 12" - Core i5 2,4 GHz - SSD 512 Go - 8 Go RAM</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>449,00 ,</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>449,00 €</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x260-i5-8go-120go-ssd-1/f-1070992-len3663369058906.html#mpos=22|mp</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Pc portable Lenovo X260 - i5 - 8Go - 120Go SSD - 12,5''- Linux</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>249,00 ,</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5250-12-5-rom-25/f-1070992-rcddelrcdirearec.html#mpos=23|mp</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - DELL E5250 - 12,5 " - ROM 256 Go - RAM 8 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-e7270-intel-r-core-i5-de-6eme-gene/f-1070992-del5397063778836.html#mpos=24|mp</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - DELL - Latitude E7270 - Intel Core i5 - 8 Go RAM - 256 Go SSD</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>575,00 ,</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>575,00 €</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5250-12-5-rom-1/f-1070992-rcddelpwiaiznrec.html#mpos=25|mp</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - DELL E5250 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>205,00 ,</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-thinkpad-x260-6300u-2-4ghz-core-i5-grade/f-1070992-len3701126408745.html#mpos=26|mp</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Ordinateur portable LENOVO THINKPAD X260 - Core i5 6300U - 12,5" - 4Go RAM - 180Go SSD - Windows 8.1 Pro</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>249,00 ,</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-lenovo-x260-i5-4go-120-go-ssd/f-1070992-len3663369036126.html#mpos=27|mp</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>PC Portable - Lenovo - ThinkPad X260 - i5 2,4 GHz - 4 Go RAM - 120 Go SSD - 12,5'' HD</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>239,00 ,</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-x250-i5-2-2ghz-4go-128go-ssd-12-5-w10/f-1070992-len4898912263134.html#mpos=28|mp</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>PC Portable - LENOVO - X250 - i5 2.2Ghz - 4Go RAM - 128Go SSD - 12.5" écran</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>219,00 ,</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-256/f-1070992-rcdhpeorbmwqrec.html#mpos=29|mp</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 256 Go - RAM 8 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/dell-latitude-7280-8go-ssd-512go/f-1070992-del3760297048044.html#mpos=30|mp</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Ordinateur portable Dell Latitude 7280 - 8Go - SSD 512Go - 12,5" - Windows 10</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>289,00 ,</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-1-t/f-1070992-rcdhpongdewarec.html#mpos=31|mp</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>215,00 ,</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x220-ultrabook/f-1070992-len7296667699609.html#mpos=32|mp</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>ordinateur portable lenovo thinkpad x220 ultrabook intel core i5 8go ram 1To SSD  DRIVES disque dur wifi windows 7 pc portable</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>358,00 ,</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-thinkpad-x230-core-i5-8/f-1070992-len8944595383709.html#mpos=33|mp</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>LENOVO - ThinkPad X230 - Ordinateur portable - Processeur Core i5 - RAM 8 Go - Stockage SSD 240 Go - Windows 10 - Reconditionné</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>239,00 ,</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/pc-portable-dell-latitude-7290-12-5-recon/f-1070992-rcddelegbkvwbrec.html#mpos=34|mp</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>PC portable - DELL - Latitude 7290 - 12,5"- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>229,00 ,</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5250-12-5-rom-25/f-1070992-rcddelquvdvclrec.html#mpos=35|mp</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - DELL E5250 - 12,5 " - ROM 256 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x280-12-5-rom-1/f-1070992-rcdlengrdjnohrec.html#mpos=36|mp</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 1 To - RAM 8 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>289,00 ,</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5250-12-5-rom-1/f-1070992-rcddelrjpgnjgrec.html#mpos=37|mp</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - DELL E5250 - 12,5 " - ROM 1 To - RAM 8 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x280-12-5-rom-4/f-1070992-rcdlenmppnjzbrec.html#mpos=38|mp</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 480 Go - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>285,00 ,</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-inspiron-910-8-9/f-1070992-rcddelhwpfvuwrec.html#mpos=39|mp</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - DELL Inspiron 910 - 8,9 " - ROM 16 Go - RAM 1024 Mo- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-480/f-1070992-rcdhpqpecpjxrec.html#mpos=40|mp</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 480 Go - RAM 8 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/10-1-windows-10-ultra-thin-ordinateur-portable-pc/f-1070992-auc5061183200095.html#mpos=41|mp</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>10.1" Windows 10 Ultra Thin Ordinateur Portable PC - 2 Go de RAM 32 Go de Stockage, Intel Quad Core 1.44 Ghz USB 3.0, WiFi, HDMI,10</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>454,00 ,</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5270-12-5-rom-1/f-1070992-rcddelhxjkmfwrec.html#mpos=42|mp</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - DELL E5270 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>205,00 ,</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/thinkpad-x250-12-5-hd-intel-core-i5-256-go-ssd-8/f-1070992-auc8419973116502.html#mpos=43|mp</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>ThinkPad X250 12,5" HD Intel Core i5 256 Go SSD 8 Go Windows 10 Pro Webcam Ordinateur portable Business (reconditionné)[163]</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>248,99 ,</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>248,99 €-10%</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>224.09</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/lenovo-x250/f-1070992-len6780864976386.html#mpos=44|mp</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Ordinateur Portable - Lenovo - ThinkPad X250 - 12 pouces - 4 Go RAM - 320 Go HDD</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>299,00 ,</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-lenovo-x280-12-5-rom-2/f-1070992-rcdlenueyuiqxrec.html#mpos=45|mp</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - LENOVO X280 - 12,5 " - ROM 2 To - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>355,00 ,</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e5270-12-5-rom-1/f-1070992-rcddellnrygbdrec.html#mpos=46|mp</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - DELL E5270 - 12,5 " - ROM 1 To - RAM 16 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>205,00 ,</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-dell-e7270-12-5-rom-25/f-1070992-rcddelualhogkrec.html#mpos=47|mp</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - DELL E7270 - 12,5 " - ROM 256 Go - RAM 8 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>269,00 ,</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>//www.cdiscount.com/informatique/ordinateurs-pc-portables/ordinateur-portable-hp-725-g3-12-5-rom-1-t/f-1070992-rcdhpnfebefarec.html#mpos=48|mp</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Ordinateur portable - HP 725 G3 - 12,5 " - ROM 1 To - RAM 8 Go- Reconditionné - Etat correct</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>199,00 ,</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr"/>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
